--- a/xlsx/samara.xlsx
+++ b/xlsx/samara.xlsx
@@ -3379,7 +3379,7 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>1439400</v>
+        <v>1685400</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -3387,7 +3387,7 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>1439400</v>
+        <v>1685400</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -3544,7 +3544,7 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>2039400</v>
+        <v>2099400</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>2039400</v>
+        <v>2099400</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>443940</v>
+        <v>625200</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -4212,7 +4212,7 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>443940</v>
+        <v>625200</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>

--- a/xlsx/samara.xlsx
+++ b/xlsx/samara.xlsx
@@ -3280,7 +3280,7 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>1260000</v>
+        <v>1290000</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -3288,7 +3288,7 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>1260000</v>
+        <v>1290000</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>1919400</v>
+        <v>1967400</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -3519,7 +3519,7 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>1919400</v>
+        <v>1967400</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -4039,7 +4039,7 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>782340</v>
+        <v>861000</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -4047,7 +4047,7 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>782340</v>
+        <v>861000</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -4105,7 +4105,7 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>654600</v>
+        <v>684000</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -4113,7 +4113,7 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>654600</v>
+        <v>684000</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -4501,7 +4501,7 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>866340</v>
+        <v>1212000</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="F124" t="n">
-        <v>866340</v>
+        <v>1212000</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -4732,7 +4732,7 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>1047540</v>
+        <v>1055400</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -4740,7 +4740,7 @@
         </is>
       </c>
       <c r="F131" t="n">
-        <v>1047540</v>
+        <v>1055400</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
@@ -4831,7 +4831,7 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>1410540</v>
+        <v>1465800</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -4839,7 +4839,7 @@
         </is>
       </c>
       <c r="F134" t="n">
-        <v>1410540</v>
+        <v>1465800</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -4930,7 +4930,7 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>1305540</v>
+        <v>1363800</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -4938,7 +4938,7 @@
         </is>
       </c>
       <c r="F137" t="n">
-        <v>1305540</v>
+        <v>1363800</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>

--- a/xlsx/samara.xlsx
+++ b/xlsx/samara.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G168"/>
+  <dimension ref="A1:G175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1715,40 +1715,40 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>165</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>DWHover</t>
+          <t>Chery</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>H3</t>
+          <t>Tiggo 9</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>719400</v>
+        <v>2850000</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/dw_hower/h3/</t>
+          <t>https://park-auto-sm.ru/avto-new/chery/tiggo9/</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>719400</v>
+        <v>2850000</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/dw_hower/h3/</t>
+          <t>https://park-auto-sm.ru/avto-new/chery/tiggo9/</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1758,63 +1758,63 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>H5</t>
+          <t>H3</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>779400</v>
+        <v>719400</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/dw_hower/h5/</t>
+          <t>https://park-auto-sm.ru/avto-new/dw_hower/h3/</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>779400</v>
+        <v>719400</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/dw_hower/h5/</t>
+          <t>https://park-auto-sm.ru/avto-new/dw_hower/h3/</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Dongfeng</t>
+          <t>DWHover</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>580 New</t>
+          <t>H5</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1157400</v>
+        <v>779400</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/dongfeng/580_new/</t>
+          <t>https://park-auto-sm.ru/avto-new/dw_hower/h5/</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1157400</v>
+        <v>779400</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/dongfeng/580_new/</t>
+          <t>https://park-auto-sm.ru/avto-new/dw_hower/h5/</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>186</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1824,30 +1824,30 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>AX7</t>
+          <t>580 New</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>617340</v>
+        <v>1157400</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/dongfeng/ax7/</t>
+          <t>https://park-auto-sm.ru/avto-new/dongfeng/580_new/</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>617340</v>
+        <v>1157400</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/dongfeng/ax7/</t>
+          <t>https://park-auto-sm.ru/avto-new/dongfeng/580_new/</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>191</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1857,30 +1857,30 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>DF6</t>
+          <t>AX7</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>1979400</v>
+        <v>617340</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/dongfeng/DF6/</t>
+          <t>https://park-auto-sm.ru/avto-new/dongfeng/ax7/</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1979400</v>
+        <v>617340</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/dongfeng/DF6/</t>
+          <t>https://park-auto-sm.ru/avto-new/dongfeng/ax7/</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>750</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1890,30 +1890,30 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>DFSK 500</t>
+          <t>DF6</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>1319400</v>
+        <v>1979400</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/dongfeng/DFSK%20500/</t>
+          <t>https://park-auto-sm.ru/avto-new/dongfeng/DF6/</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1319400</v>
+        <v>1979400</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/dongfeng/DFSK%20500/</t>
+          <t>https://park-auto-sm.ru/avto-new/dongfeng/DF6/</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>750</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1923,30 +1923,30 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>DFSK IX5</t>
+          <t>DFSK 500</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1434000</v>
+        <v>1319400</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/dongfeng/DFSK_ix5/</t>
+          <t>https://park-auto-sm.ru/avto-new/dongfeng/DFSK%20500/</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1434000</v>
+        <v>1319400</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/dongfeng/DFSK_ix5/</t>
+          <t>https://park-auto-sm.ru/avto-new/dongfeng/DFSK%20500/</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>188</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1956,30 +1956,30 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>DFSK IX7</t>
+          <t>DFSK IX5</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2154000</v>
+        <v>1434000</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/dongfeng/DFSK_ix7/</t>
+          <t>https://park-auto-sm.ru/avto-new/dongfeng/DFSK_ix5/</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>2154000</v>
+        <v>1434000</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/dongfeng/DFSK_ix7/</t>
+          <t>https://park-auto-sm.ru/avto-new/dongfeng/DFSK_ix5/</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1989,63 +1989,63 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Shine Max</t>
+          <t>DFSK IX7</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>1319400</v>
+        <v>2154000</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/dongfeng/Shine_Max/</t>
+          <t>https://park-auto-sm.ru/avto-new/dongfeng/DFSK_ix7/</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1319400</v>
+        <v>2154000</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/dongfeng/Shine_Max/</t>
+          <t>https://park-auto-sm.ru/avto-new/dongfeng/DFSK_ix7/</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>EXEED</t>
+          <t>Dongfeng</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>LX</t>
+          <t>Shine Max</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>2028000</v>
+        <v>1319400</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/exeed/lx/</t>
+          <t>https://park-auto-sm.ru/avto-new/dongfeng/Shine_Max/</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2028000</v>
+        <v>1319400</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/exeed/lx/</t>
+          <t>https://park-auto-sm.ru/avto-new/dongfeng/Shine_Max/</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>203</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2055,30 +2055,30 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>LX New</t>
+          <t>LX</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>1854000</v>
+        <v>2028000</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/exeed/lx_%D0%BD%D0%BE%D0%B2%D1%8B%D0%B9/</t>
+          <t>https://park-auto-sm.ru/avto-new/exeed/lx/</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1854000</v>
+        <v>2028000</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/exeed/lx_%D0%BD%D0%BE%D0%B2%D1%8B%D0%B9/</t>
+          <t>https://park-auto-sm.ru/avto-new/exeed/lx/</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2088,30 +2088,30 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>TXL</t>
+          <t>LX New</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>1966900</v>
+        <v>1854000</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/exeed/txl/</t>
+          <t>https://park-auto-sm.ru/avto-new/exeed/lx_%D0%BD%D0%BE%D0%B2%D1%8B%D0%B9/</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1966900</v>
+        <v>1854000</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/exeed/txl/</t>
+          <t>https://park-auto-sm.ru/avto-new/exeed/lx_%D0%BD%D0%BE%D0%B2%D1%8B%D0%B9/</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2121,30 +2121,30 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>TXL New</t>
+          <t>TXL</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>2430000</v>
+        <v>1966900</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/exeed/chery__txl/</t>
+          <t>https://park-auto-sm.ru/avto-new/exeed/txl/</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>2430000</v>
+        <v>1966900</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/exeed/chery__txl/</t>
+          <t>https://park-auto-sm.ru/avto-new/exeed/txl/</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2154,30 +2154,30 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>VX</t>
+          <t>TXL New</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>2514000</v>
+        <v>2430000</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/exeed/vx/</t>
+          <t>https://park-auto-sm.ru/avto-new/exeed/chery__txl/</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2514000</v>
+        <v>2430000</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/exeed/vx/</t>
+          <t>https://park-auto-sm.ru/avto-new/exeed/chery__txl/</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2187,63 +2187,63 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>VX New</t>
+          <t>VX</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>3360000</v>
+        <v>2514000</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/exeed/vx_%D0%BD%D0%BE%D0%B2%D1%8B%D0%B9/</t>
+          <t>https://park-auto-sm.ru/avto-new/exeed/vx/</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>3360000</v>
+        <v>2514000</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/exeed/vx_%D0%BD%D0%BE%D0%B2%D1%8B%D0%B9/</t>
+          <t>https://park-auto-sm.ru/avto-new/exeed/vx/</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>FAW</t>
+          <t>EXEED</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Bestune B70</t>
+          <t>VX New</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>1396800</v>
+        <v>3360000</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/faw/bestune_b70/</t>
+          <t>https://park-auto-sm.ru/avto-new/exeed/vx_%D0%BD%D0%BE%D0%B2%D1%8B%D0%B9/</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1396800</v>
+        <v>3360000</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/faw/bestune_b70/</t>
+          <t>https://park-auto-sm.ru/avto-new/exeed/vx_%D0%BD%D0%BE%D0%B2%D1%8B%D0%B9/</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2253,30 +2253,30 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Bestune T55</t>
+          <t>Bestune B70</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>1373400</v>
+        <v>1396800</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/faw/bestune_t55/</t>
+          <t>https://park-auto-sm.ru/avto-new/faw/bestune_b70/</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1373400</v>
+        <v>1396800</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/faw/bestune_t55/</t>
+          <t>https://park-auto-sm.ru/avto-new/faw/bestune_b70/</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>829</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2286,30 +2286,30 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Bestune T77</t>
+          <t>Bestune B70 New</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>1301400</v>
+        <v>1499994</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/faw/bestune_t77/</t>
+          <t>https://park-auto-sm.ru/avto-new/faw/bestune_b70_new/</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1301400</v>
+        <v>1499994</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/faw/bestune_t77/</t>
+          <t>https://park-auto-sm.ru/avto-new/faw/bestune_b70_new/</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2319,30 +2319,30 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Bestune T99</t>
+          <t>Bestune T55</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>1770000</v>
+        <v>1373400</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/faw/bestune_t99/</t>
+          <t>https://park-auto-sm.ru/avto-new/faw/bestune_t55/</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1770000</v>
+        <v>1373400</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/faw/bestune_t99/</t>
+          <t>https://park-auto-sm.ru/avto-new/faw/bestune_t55/</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2352,30 +2352,30 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Besturn X40</t>
+          <t>Bestune T77</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>961200</v>
+        <v>1301400</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/faw/faw_besturn_x40/</t>
+          <t>https://park-auto-sm.ru/avto-new/faw/bestune_t77/</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>961200</v>
+        <v>1301400</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/faw/faw_besturn_x40/</t>
+          <t>https://park-auto-sm.ru/avto-new/faw/bestune_t77/</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>833</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2385,129 +2385,129 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Besturn X80 New</t>
+          <t>Bestune T90 New</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>904800</v>
+        <v>1667994</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/faw/besturn_new/</t>
+          <t>https://park-auto-sm.ru/avto-new/faw/bestune_t90_new/</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>904800</v>
+        <v>1667994</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/faw/besturn_new/</t>
+          <t>https://park-auto-sm.ru/avto-new/faw/bestune_t90_new/</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Geely</t>
+          <t>FAW</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Atlas</t>
+          <t>Bestune T99</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>1337394</v>
+        <v>1770000</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/geely/atlas/</t>
+          <t>https://park-auto-sm.ru/avto-new/faw/bestune_t99/</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>1337394</v>
+        <v>1770000</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/geely/atlas/</t>
+          <t>https://park-auto-sm.ru/avto-new/faw/bestune_t99/</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>220</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Geely</t>
+          <t>FAW</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Atlas New</t>
+          <t>Besturn X40</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>1976394</v>
+        <v>961200</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/geely/atlas_new/</t>
+          <t>https://park-auto-sm.ru/avto-new/faw/faw_besturn_x40/</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>1976394</v>
+        <v>961200</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/geely/atlas_new/</t>
+          <t>https://park-auto-sm.ru/avto-new/faw/faw_besturn_x40/</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Geely</t>
+          <t>FAW</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Atlas Pro</t>
+          <t>Besturn X80 New</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>1702194</v>
+        <v>904800</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/geely/atlas_pro/</t>
+          <t>https://park-auto-sm.ru/avto-new/faw/besturn_new/</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>1702194</v>
+        <v>904800</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/geely/atlas_pro/</t>
+          <t>https://park-auto-sm.ru/avto-new/faw/besturn_new/</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>772</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2517,30 +2517,30 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Cityray</t>
+          <t>Atlas</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>1619994</v>
+        <v>1337394</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/geely/Cityray/</t>
+          <t>https://park-auto-sm.ru/avto-new/geely/atlas/</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>1619994</v>
+        <v>1337394</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/geely/Cityray/</t>
+          <t>https://park-auto-sm.ru/avto-new/geely/atlas/</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2550,30 +2550,30 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Coolray</t>
+          <t>Atlas New</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>963300</v>
+        <v>1976394</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/geely/coolray/</t>
+          <t>https://park-auto-sm.ru/avto-new/geely/atlas_new/</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>963300</v>
+        <v>1976394</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/geely/coolray/</t>
+          <t>https://park-auto-sm.ru/avto-new/geely/atlas_new/</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2583,30 +2583,30 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Coolray New</t>
+          <t>Atlas Pro</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>1583994</v>
+        <v>1702194</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/geely/new-coolray/</t>
+          <t>https://park-auto-sm.ru/avto-new/geely/atlas_pro/</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>1583994</v>
+        <v>1702194</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/geely/new-coolray/</t>
+          <t>https://park-auto-sm.ru/avto-new/geely/atlas_pro/</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>772</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2616,30 +2616,30 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Emgrand</t>
+          <t>Cityray</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>1267794</v>
+        <v>1619994</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/geely/emgrand_NEW/</t>
+          <t>https://park-auto-sm.ru/avto-new/geely/Cityray/</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>1267794</v>
+        <v>1619994</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/geely/emgrand_NEW/</t>
+          <t>https://park-auto-sm.ru/avto-new/geely/Cityray/</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2649,30 +2649,30 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>Coolray</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1154400</v>
+        <v>963300</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/geely/gs/</t>
+          <t>https://park-auto-sm.ru/avto-new/geely/coolray/</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>1154400</v>
+        <v>963300</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/geely/gs/</t>
+          <t>https://park-auto-sm.ru/avto-new/geely/coolray/</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2682,30 +2682,30 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Monjaro</t>
+          <t>Coolray New</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>2596194</v>
+        <v>1583994</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/geely/monjaro/</t>
+          <t>https://park-auto-sm.ru/avto-new/geely/new-coolray/</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>2596194</v>
+        <v>1583994</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/geely/monjaro/</t>
+          <t>https://park-auto-sm.ru/avto-new/geely/new-coolray/</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2715,30 +2715,30 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Okavango</t>
+          <t>Emgrand</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>2117394</v>
+        <v>1267794</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/geely/okavango/</t>
+          <t>https://park-auto-sm.ru/avto-new/geely/emgrand_NEW/</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>2117394</v>
+        <v>1267794</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/geely/okavango/</t>
+          <t>https://park-auto-sm.ru/avto-new/geely/emgrand_NEW/</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2748,30 +2748,30 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Preface</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1380000</v>
+        <v>1154400</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/geely/preface/</t>
+          <t>https://park-auto-sm.ru/avto-new/geely/gs/</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>1380000</v>
+        <v>1154400</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/geely/preface/</t>
+          <t>https://park-auto-sm.ru/avto-new/geely/gs/</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2781,228 +2781,228 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Tugella New</t>
+          <t>Monjaro</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>2146990</v>
+        <v>2596194</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/geely/tugella_new/</t>
+          <t>https://park-auto-sm.ru/avto-new/geely/monjaro/</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>2146990</v>
+        <v>2596194</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/geely/tugella_new/</t>
+          <t>https://park-auto-sm.ru/avto-new/geely/monjaro/</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>267</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Great Wall</t>
+          <t>Geely</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>POER</t>
+          <t>Okavango</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>2069400</v>
+        <v>2117394</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/great+wall/gwm_poer/</t>
+          <t>https://park-auto-sm.ru/avto-new/geely/okavango/</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>2069400</v>
+        <v>2117394</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/great+wall/gwm_poer/</t>
+          <t>https://park-auto-sm.ru/avto-new/geely/okavango/</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>269</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Great Wall</t>
+          <t>Geely</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>POER King Kong</t>
+          <t>Preface</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>1919400</v>
+        <v>1380000</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/great+wall/poer_kingkong/</t>
+          <t>https://park-auto-sm.ru/avto-new/geely/preface/</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>1919400</v>
+        <v>1380000</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/great+wall/poer_kingkong/</t>
+          <t>https://park-auto-sm.ru/avto-new/geely/preface/</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Great Wall</t>
+          <t>Geely</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Wingle 7</t>
+          <t>Tugella New</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>1679400</v>
+        <v>2146990</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/great+wall/wingle_7/</t>
+          <t>https://park-auto-sm.ru/avto-new/geely/tugella_new/</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>1679400</v>
+        <v>2146990</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/great+wall/wingle_7/</t>
+          <t>https://park-auto-sm.ru/avto-new/geely/tugella_new/</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Haval</t>
+          <t>Great Wall</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Dargo</t>
+          <t>POER</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>1687000</v>
+        <v>2069400</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/haval/dargo/</t>
+          <t>https://park-auto-sm.ru/avto-new/great+wall/gwm_poer/</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>1687000</v>
+        <v>2069400</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/haval/dargo/</t>
+          <t>https://park-auto-sm.ru/avto-new/great+wall/gwm_poer/</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>277</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Haval</t>
+          <t>Great Wall</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Dargo X</t>
+          <t>POER King Kong</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>2009400</v>
+        <v>1919400</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/haval/dargo_x/</t>
+          <t>https://park-auto-sm.ru/avto-new/great+wall/poer_kingkong/</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>2009400</v>
+        <v>1919400</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/haval/dargo_x/</t>
+          <t>https://park-auto-sm.ru/avto-new/great+wall/poer_kingkong/</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>275</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Haval</t>
+          <t>Great Wall</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>F7</t>
+          <t>Wingle 7</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>1469400</v>
+        <v>1679400</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/haval/haval_f7/</t>
+          <t>https://park-auto-sm.ru/avto-new/great+wall/wingle_7/</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>1469400</v>
+        <v>1679400</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/haval/haval_f7/</t>
+          <t>https://park-auto-sm.ru/avto-new/great+wall/wingle_7/</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -3012,30 +3012,30 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>F7 New</t>
+          <t>Dargo</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>1619400</v>
+        <v>1687000</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/haval/haval_f7_%D0%BD%D0%BE%D0%B2%D1%8B%D0%B9/</t>
+          <t>https://park-auto-sm.ru/avto-new/haval/dargo/</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>1619400</v>
+        <v>1687000</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/haval/haval_f7_%D0%BD%D0%BE%D0%B2%D1%8B%D0%B9/</t>
+          <t>https://park-auto-sm.ru/avto-new/haval/dargo/</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>287</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -3045,30 +3045,30 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>F7x</t>
+          <t>Dargo X</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>1469400</v>
+        <v>2009400</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/haval/haval_f7x/</t>
+          <t>https://park-auto-sm.ru/avto-new/haval/dargo_x/</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>1469400</v>
+        <v>2009400</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/haval/haval_f7x/</t>
+          <t>https://park-auto-sm.ru/avto-new/haval/dargo_x/</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>304</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -3078,30 +3078,30 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>H3</t>
+          <t>F7</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>1559400</v>
+        <v>1469400</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/haval/haval_h3/</t>
+          <t>https://park-auto-sm.ru/avto-new/haval/haval_f7/</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>1559400</v>
+        <v>1469400</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/haval/haval_h3/</t>
+          <t>https://park-auto-sm.ru/avto-new/haval/haval_f7/</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>288</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -3111,30 +3111,30 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>H5</t>
+          <t>F7 New</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>2219400</v>
+        <v>1619400</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/haval/haval_h5/</t>
+          <t>https://park-auto-sm.ru/avto-new/haval/haval_f7_%D0%BD%D0%BE%D0%B2%D1%8B%D0%B9/</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>2219400</v>
+        <v>1619400</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/haval/haval_h5/</t>
+          <t>https://park-auto-sm.ru/avto-new/haval/haval_f7_%D0%BD%D0%BE%D0%B2%D1%8B%D0%B9/</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>305</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -3144,30 +3144,30 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>H9</t>
+          <t>F7x</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>2579400</v>
+        <v>1469400</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/haval/haval_h9/</t>
+          <t>https://park-auto-sm.ru/avto-new/haval/haval_f7x/</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>2579400</v>
+        <v>1469400</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/haval/haval_h9/</t>
+          <t>https://park-auto-sm.ru/avto-new/haval/haval_f7x/</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>296</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -3177,30 +3177,30 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Jolion</t>
+          <t>H3</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>886000</v>
+        <v>1559400</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/haval/jolion/</t>
+          <t>https://park-auto-sm.ru/avto-new/haval/haval_h3/</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>886000</v>
+        <v>1559400</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/haval/jolion/</t>
+          <t>https://park-auto-sm.ru/avto-new/haval/haval_h3/</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -3210,30 +3210,30 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Jolion New</t>
+          <t>H5</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>1199400</v>
+        <v>2219400</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/haval/jolion_new/</t>
+          <t>https://park-auto-sm.ru/avto-new/haval/haval_h5/</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>1199400</v>
+        <v>2219400</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/haval/jolion_new/</t>
+          <t>https://park-auto-sm.ru/avto-new/haval/haval_h5/</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>300</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -3243,129 +3243,129 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>M6</t>
+          <t>H9</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>1307400</v>
+        <v>2579400</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/haval/haval_m6/</t>
+          <t>https://park-auto-sm.ru/avto-new/haval/haval_h9/</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>1307400</v>
+        <v>2579400</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/haval/haval_m6/</t>
+          <t>https://park-auto-sm.ru/avto-new/haval/haval_h9/</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>301</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>JAC</t>
+          <t>Haval</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>J7</t>
+          <t>Jolion</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>1290000</v>
+        <v>886000</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/jac/j7/</t>
+          <t>https://park-auto-sm.ru/avto-new/haval/jolion/</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>1290000</v>
+        <v>886000</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/jac/j7/</t>
+          <t>https://park-auto-sm.ru/avto-new/haval/jolion/</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>338</t>
+          <t>303</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>JAC</t>
+          <t>Haval</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>JS3</t>
+          <t>Jolion New</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>1049400</v>
+        <v>1199400</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/jac/JAC_JS3/</t>
+          <t>https://park-auto-sm.ru/avto-new/haval/jolion_new/</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>1049400</v>
+        <v>1199400</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/jac/JAC_JS3/</t>
+          <t>https://park-auto-sm.ru/avto-new/haval/jolion_new/</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>307</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>JAC</t>
+          <t>Haval</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>JS4</t>
+          <t>M6</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>1037400</v>
+        <v>1307400</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/jac/js4/</t>
+          <t>https://park-auto-sm.ru/avto-new/haval/haval_m6/</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>1037400</v>
+        <v>1307400</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/jac/js4/</t>
+          <t>https://park-auto-sm.ru/avto-new/haval/haval_m6/</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>337</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -3375,30 +3375,30 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>JS6</t>
+          <t>J7</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>1685400</v>
+        <v>1290000</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/jac/js6/</t>
+          <t>https://park-auto-sm.ru/avto-new/jac/j7/</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>1685400</v>
+        <v>1290000</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/jac/js6/</t>
+          <t>https://park-auto-sm.ru/avto-new/jac/j7/</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>733</t>
+          <t>338</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -3408,30 +3408,30 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>S6</t>
+          <t>JS3</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>1559400</v>
+        <v>1049400</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/jac/s6/</t>
+          <t>https://park-auto-sm.ru/avto-new/jac/JAC_JS3/</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>1559400</v>
+        <v>1049400</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/jac/s6/</t>
+          <t>https://park-auto-sm.ru/avto-new/jac/JAC_JS3/</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>344</t>
+          <t>339</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -3441,30 +3441,30 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>T6</t>
+          <t>JS4</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>955000</v>
+        <v>1037400</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/jac/t6/</t>
+          <t>https://park-auto-sm.ru/avto-new/jac/js4/</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>955000</v>
+        <v>1037400</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/jac/t6/</t>
+          <t>https://park-auto-sm.ru/avto-new/jac/js4/</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>681</t>
+          <t>340</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -3474,30 +3474,30 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>T8</t>
+          <t>JS6</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>1709400</v>
+        <v>1685400</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/jac/t8/</t>
+          <t>https://park-auto-sm.ru/avto-new/jac/js6/</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>1709400</v>
+        <v>1685400</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/jac/t8/</t>
+          <t>https://park-auto-sm.ru/avto-new/jac/js6/</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>733</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -3507,30 +3507,30 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>T8 Pro</t>
+          <t>S6</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>1967400</v>
+        <v>1559400</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/jac/t8pro/</t>
+          <t>https://park-auto-sm.ru/avto-new/jac/s6/</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>1967400</v>
+        <v>1559400</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/jac/t8pro/</t>
+          <t>https://park-auto-sm.ru/avto-new/jac/s6/</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>682</t>
+          <t>344</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -3540,195 +3540,195 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>T9</t>
+          <t>T6</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>2099400</v>
+        <v>955000</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/jac/t9/</t>
+          <t>https://park-auto-sm.ru/avto-new/jac/t6/</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>2099400</v>
+        <v>955000</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/jac/t9/</t>
+          <t>https://park-auto-sm.ru/avto-new/jac/t6/</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>681</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>JAECOO</t>
+          <t>JAC</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>J7</t>
+          <t>T8</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>1709940</v>
+        <v>1709400</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/jaecoo/jaecoo_j7/</t>
+          <t>https://park-auto-sm.ru/avto-new/jac/t8/</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>1709940</v>
+        <v>1709400</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/jaecoo/jaecoo_j7/</t>
+          <t>https://park-auto-sm.ru/avto-new/jac/t8/</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>345</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>JAECOO</t>
+          <t>JAC</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>J8</t>
+          <t>T8 Pro</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>2669400</v>
+        <v>1967400</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/jaecoo/jaecoo_j8/</t>
+          <t>https://park-auto-sm.ru/avto-new/jac/t8pro/</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>2669400</v>
+        <v>1967400</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/jaecoo/jaecoo_j8/</t>
+          <t>https://park-auto-sm.ru/avto-new/jac/t8pro/</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>682</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Jetour</t>
+          <t>JAC</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Dashing</t>
+          <t>T9</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>1493940</v>
+        <v>2099400</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/jetour/dashing/</t>
+          <t>https://park-auto-sm.ru/avto-new/jac/t9/</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>1493940</v>
+        <v>2099400</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/jetour/dashing/</t>
+          <t>https://park-auto-sm.ru/avto-new/jac/t9/</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>347</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Jetour</t>
+          <t>JAECOO</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>J7</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>2375400</v>
+        <v>1709940</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/jetour/t2/</t>
+          <t>https://park-auto-sm.ru/avto-new/jaecoo/jaecoo_j7/</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>2375400</v>
+        <v>1709940</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/jetour/t2/</t>
+          <t>https://park-auto-sm.ru/avto-new/jaecoo/jaecoo_j7/</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>758</t>
+          <t>348</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Jetour</t>
+          <t>JAECOO</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>X50</t>
+          <t>J8</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>1194000</v>
+        <v>2669400</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/jetour/X-50/</t>
+          <t>https://park-auto-sm.ru/avto-new/jaecoo/jaecoo_j8/</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>1194000</v>
+        <v>2669400</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/jetour/X-50/</t>
+          <t>https://park-auto-sm.ru/avto-new/jaecoo/jaecoo_j8/</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>349</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -3738,30 +3738,30 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>X70 Plus</t>
+          <t>Dashing</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>1799940</v>
+        <v>1493940</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/jetour/X70Plus/</t>
+          <t>https://park-auto-sm.ru/avto-new/jetour/dashing/</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>1799940</v>
+        <v>1493940</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/jetour/X70Plus/</t>
+          <t>https://park-auto-sm.ru/avto-new/jetour/dashing/</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>351</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -3771,393 +3771,393 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>X90 Plus</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>1949940</v>
+        <v>2375400</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/jetour/x90plus/</t>
+          <t>https://park-auto-sm.ru/avto-new/jetour/t2/</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>1949940</v>
+        <v>2375400</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/jetour/x90plus/</t>
+          <t>https://park-auto-sm.ru/avto-new/jetour/t2/</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>758</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>Jetour</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>VA3</t>
+          <t>X50</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>1156800</v>
+        <v>1194000</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/jetta/va3/</t>
+          <t>https://park-auto-sm.ru/avto-new/jetour/X-50/</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>1156800</v>
+        <v>1194000</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/jetta/va3/</t>
+          <t>https://park-auto-sm.ru/avto-new/jetour/X-50/</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>352</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>Jetour</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>VS5</t>
+          <t>X70</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>1800000</v>
+        <v>1589400</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/jetta/vs5/</t>
+          <t>https://park-auto-sm.ru/avto-new/jetour/x_70/</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>1800000</v>
+        <v>1589400</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/jetta/vs5/</t>
+          <t>https://park-auto-sm.ru/avto-new/jetour/x_70/</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>353</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>Jetour</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>VS7</t>
+          <t>X70 Plus</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>2020200</v>
+        <v>1799940</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/jetta/vs7/</t>
+          <t>https://park-auto-sm.ru/avto-new/jetour/X70Plus/</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>2020200</v>
+        <v>1799940</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/jetta/vs7/</t>
+          <t>https://park-auto-sm.ru/avto-new/jetour/X70Plus/</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>354</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>KAIYI</t>
+          <t>Jetour</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>E5</t>
+          <t>X90 Plus</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>1269000</v>
+        <v>1949940</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/kaiyi/e5/</t>
+          <t>https://park-auto-sm.ru/avto-new/jetour/x90plus/</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>1269000</v>
+        <v>1949940</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/kaiyi/e5/</t>
+          <t>https://park-auto-sm.ru/avto-new/jetour/x90plus/</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>355</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>KAIYI</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>X3</t>
+          <t>VA3</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>1342800</v>
+        <v>1156800</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/kaiyi/kaiyi_x3/</t>
+          <t>https://park-auto-sm.ru/avto-new/jetta/va3/</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>1342800</v>
+        <v>1156800</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/kaiyi/kaiyi_x3/</t>
+          <t>https://park-auto-sm.ru/avto-new/jetta/va3/</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>356</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>KAIYI</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>X3 Pro</t>
+          <t>VS5</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>1508940</v>
+        <v>1800000</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/kaiyi/kaiyi_x3_pro/</t>
+          <t>https://park-auto-sm.ru/avto-new/jetta/vs5/</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>1508940</v>
+        <v>1800000</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/kaiyi/kaiyi_x3_pro/</t>
+          <t>https://park-auto-sm.ru/avto-new/jetta/vs5/</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>361</t>
+          <t>357</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>KAIYI</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>X7 Kunlun</t>
+          <t>VS7</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>1798740</v>
+        <v>2020200</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/kaiyi/kaiyi_x7_kunlun/</t>
+          <t>https://park-auto-sm.ru/avto-new/jetta/vs7/</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>1798740</v>
+        <v>2020200</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/kaiyi/kaiyi_x7_kunlun/</t>
+          <t>https://park-auto-sm.ru/avto-new/jetta/vs7/</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>401</t>
+          <t>358</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>KAIYI</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>4x4 Bronto</t>
+          <t>E5</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>861000</v>
+        <v>1269000</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lada/4_x_4_bronto/</t>
+          <t>https://park-auto-sm.ru/avto-new/kaiyi/e5/</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>861000</v>
+        <v>1269000</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lada/4_x_4_bronto/</t>
+          <t>https://park-auto-sm.ru/avto-new/kaiyi/e5/</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>795</t>
+          <t>359</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>KAIYI</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Aura</t>
+          <t>X3</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>1559400</v>
+        <v>1342800</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lada/aura/</t>
+          <t>https://park-auto-sm.ru/avto-new/kaiyi/kaiyi_x3/</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>1559400</v>
+        <v>1342800</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lada/aura/</t>
+          <t>https://park-auto-sm.ru/avto-new/kaiyi/kaiyi_x3/</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>360</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>KAIYI</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Granta Cross</t>
+          <t>X3 Pro</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>684000</v>
+        <v>1508940</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lada/lada_granta_cross/</t>
+          <t>https://park-auto-sm.ru/avto-new/kaiyi/kaiyi_x3_pro/</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>684000</v>
+        <v>1508940</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lada/lada_granta_cross/</t>
+          <t>https://park-auto-sm.ru/avto-new/kaiyi/kaiyi_x3_pro/</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>408</t>
+          <t>361</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>KAIYI</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Granta Drive Active Liftback</t>
+          <t>X7 Kunlun</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>638940</v>
+        <v>1798740</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lada/lada_granta_sport_drive_active_liftback/</t>
+          <t>https://park-auto-sm.ru/avto-new/kaiyi/kaiyi_x7_kunlun/</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>638940</v>
+        <v>1798740</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lada/lada_granta_sport_drive_active_liftback/</t>
+          <t>https://park-auto-sm.ru/avto-new/kaiyi/kaiyi_x7_kunlun/</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>401</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -4167,30 +4167,30 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Granta Hatchback</t>
+          <t>4x4 Bronto</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>467100</v>
+        <v>861000</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lada/granta_hatchback_new/</t>
+          <t>https://park-auto-sm.ru/avto-new/lada/4_x_4_bronto/</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>467100</v>
+        <v>861000</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lada/granta_hatchback_new/</t>
+          <t>https://park-auto-sm.ru/avto-new/lada/4_x_4_bronto/</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>405</t>
+          <t>795</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -4200,30 +4200,30 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Granta Liftback</t>
+          <t>Aura</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>625200</v>
+        <v>1559400</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lada/granta_liftback_new/</t>
+          <t>https://park-auto-sm.ru/avto-new/lada/aura/</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>625200</v>
+        <v>1559400</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lada/granta_liftback_new/</t>
+          <t>https://park-auto-sm.ru/avto-new/lada/aura/</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>402</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -4233,30 +4233,30 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Granta Sedan</t>
+          <t>Granta Cross</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>419940</v>
+        <v>684000</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lada/granta_sedan_new/</t>
+          <t>https://park-auto-sm.ru/avto-new/lada/lada_granta_cross/</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>419940</v>
+        <v>684000</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lada/granta_sedan_new/</t>
+          <t>https://park-auto-sm.ru/avto-new/lada/lada_granta_cross/</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>403</t>
+          <t>408</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -4266,30 +4266,30 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Granta Sedan Drive Active</t>
+          <t>Granta Drive Active Liftback</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>620940</v>
+        <v>638940</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lada/granta_drive_active/</t>
+          <t>https://park-auto-sm.ru/avto-new/lada/lada_granta_sport_drive_active_liftback/</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>620940</v>
+        <v>638940</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lada/granta_drive_active/</t>
+          <t>https://park-auto-sm.ru/avto-new/lada/lada_granta_sport_drive_active_liftback/</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>409</t>
+          <t>404</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -4299,30 +4299,30 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Granta Sport Liftback</t>
+          <t>Granta Hatchback</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>892800</v>
+        <v>467100</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lada/granta_sport_liftback/</t>
+          <t>https://park-auto-sm.ru/avto-new/lada/granta_hatchback_new/</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>892800</v>
+        <v>467100</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lada/granta_sport_liftback/</t>
+          <t>https://park-auto-sm.ru/avto-new/lada/granta_hatchback_new/</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>411</t>
+          <t>405</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -4332,30 +4332,30 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Granta Sport Sedan</t>
+          <t>Granta Liftback</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>868800</v>
+        <v>625200</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lada/granta_sport_sedan/</t>
+          <t>https://park-auto-sm.ru/avto-new/lada/granta_liftback_new/</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>868800</v>
+        <v>625200</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lada/granta_sport_sedan/</t>
+          <t>https://park-auto-sm.ru/avto-new/lada/granta_liftback_new/</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>723</t>
+          <t>406</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -4365,30 +4365,30 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Granta Sportline</t>
+          <t>Granta Sedan</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>780600</v>
+        <v>419940</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lada/granta_sportline/</t>
+          <t>https://park-auto-sm.ru/avto-new/lada/granta_sedan_new/</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>780600</v>
+        <v>419940</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lada/granta_sportline/</t>
+          <t>https://park-auto-sm.ru/avto-new/lada/granta_sedan_new/</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>732</t>
+          <t>403</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -4398,30 +4398,30 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Granta Sportline Liftback</t>
+          <t>Granta Sedan Drive Active</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>804600</v>
+        <v>620940</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lada/granta_sportline_%D0%BB%D0%B8%D1%84%D1%82%D0%B1%D1%8D%D0%BA/</t>
+          <t>https://park-auto-sm.ru/avto-new/lada/granta_drive_active/</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>804600</v>
+        <v>620940</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lada/granta_sportline_%D0%BB%D0%B8%D1%84%D1%82%D0%B1%D1%8D%D0%BA/</t>
+          <t>https://park-auto-sm.ru/avto-new/lada/granta_drive_active/</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>414</t>
+          <t>409</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -4431,30 +4431,30 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Granta Universal</t>
+          <t>Granta Sport Liftback</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>431580</v>
+        <v>892800</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lada/granta_uni_new/</t>
+          <t>https://park-auto-sm.ru/avto-new/lada/granta_sport_liftback/</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>431580</v>
+        <v>892800</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lada/granta_uni_new/</t>
+          <t>https://park-auto-sm.ru/avto-new/lada/granta_sport_liftback/</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>418</t>
+          <t>411</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -4464,30 +4464,30 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Largus</t>
+          <t>Granta Sport Sedan</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>766500</v>
+        <v>868800</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lada/largus-5-mest/</t>
+          <t>https://park-auto-sm.ru/avto-new/lada/granta_sport_sedan/</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>766500</v>
+        <v>868800</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lada/largus-5-mest/</t>
+          <t>https://park-auto-sm.ru/avto-new/lada/granta_sport_sedan/</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>419</t>
+          <t>723</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -4497,30 +4497,30 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Largus Cross</t>
+          <t>Granta Sportline</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>1212000</v>
+        <v>780600</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lada/largus_cross_5/</t>
+          <t>https://park-auto-sm.ru/avto-new/lada/granta_sportline/</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>1212000</v>
+        <v>780600</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lada/largus_cross_5/</t>
+          <t>https://park-auto-sm.ru/avto-new/lada/granta_sportline/</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>422</t>
+          <t>732</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -4530,30 +4530,30 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Niva</t>
+          <t>Granta Sportline Liftback</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>575640</v>
+        <v>804600</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lada/ladaniva/</t>
+          <t>https://park-auto-sm.ru/avto-new/lada/granta_sportline_%D0%BB%D0%B8%D1%84%D1%82%D0%B1%D1%8D%D0%BA/</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>575640</v>
+        <v>804600</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lada/ladaniva/</t>
+          <t>https://park-auto-sm.ru/avto-new/lada/granta_sportline_%D0%BB%D0%B8%D1%84%D1%82%D0%B1%D1%8D%D0%BA/</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>414</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -4563,30 +4563,30 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Niva Legend 3 двери</t>
+          <t>Granta Universal</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>588600</v>
+        <v>431580</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lada/4x4_3dr/</t>
+          <t>https://park-auto-sm.ru/avto-new/lada/granta_uni_new/</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>588600</v>
+        <v>431580</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lada/4x4_3dr/</t>
+          <t>https://park-auto-sm.ru/avto-new/lada/granta_uni_new/</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>418</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -4596,30 +4596,30 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Niva Legend 5 дверей</t>
+          <t>Largus</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>551340</v>
+        <v>766500</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lada/4x4_5dr/</t>
+          <t>https://park-auto-sm.ru/avto-new/lada/largus-5-mest/</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>551340</v>
+        <v>766500</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lada/4x4_5dr/</t>
+          <t>https://park-auto-sm.ru/avto-new/lada/largus-5-mest/</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>419</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -4629,30 +4629,30 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Niva Travel</t>
+          <t>Largus Cross</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>479900</v>
+        <v>1212000</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lada/niva-travel/</t>
+          <t>https://park-auto-sm.ru/avto-new/lada/largus_cross_5/</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>479900</v>
+        <v>1212000</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lada/niva-travel/</t>
+          <t>https://park-auto-sm.ru/avto-new/lada/largus_cross_5/</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>427</t>
+          <t>422</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -4662,30 +4662,30 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Niva Urban 3 двери</t>
+          <t>Niva</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>517860</v>
+        <v>575640</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lada/urban_3d/</t>
+          <t>https://park-auto-sm.ru/avto-new/lada/ladaniva/</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>517860</v>
+        <v>575640</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lada/urban_3d/</t>
+          <t>https://park-auto-sm.ru/avto-new/lada/ladaniva/</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>430</t>
+          <t>423</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -4695,30 +4695,30 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Niva Urban 5 дверей</t>
+          <t>Niva Legend 3 двери</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>551400</v>
+        <v>588600</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lada/urban_5d/</t>
+          <t>https://park-auto-sm.ru/avto-new/lada/4x4_3dr/</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>551400</v>
+        <v>588600</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lada/urban_5d/</t>
+          <t>https://park-auto-sm.ru/avto-new/lada/4x4_3dr/</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>437</t>
+          <t>424</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -4728,30 +4728,30 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Vesta Cross</t>
+          <t>Niva Legend 5 дверей</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>1055400</v>
+        <v>551340</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lada/vesta_cross/</t>
+          <t>https://park-auto-sm.ru/avto-new/lada/4x4_5dr/</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>1055400</v>
+        <v>551340</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lada/vesta_cross/</t>
+          <t>https://park-auto-sm.ru/avto-new/lada/4x4_5dr/</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>434</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -4761,30 +4761,30 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Vesta SW</t>
+          <t>Niva Travel</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>993000</v>
+        <v>479900</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lada/vesta_sw/</t>
+          <t>https://park-auto-sm.ru/avto-new/lada/niva-travel/</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>993000</v>
+        <v>479900</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lada/vesta_sw/</t>
+          <t>https://park-auto-sm.ru/avto-new/lada/niva-travel/</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>427</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -4794,30 +4794,30 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Vesta SW Cross</t>
+          <t>Niva Urban 3 двери</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>1127400</v>
+        <v>517860</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lada/vesta_sw_cross/</t>
+          <t>https://park-auto-sm.ru/avto-new/lada/urban_3d/</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>1127400</v>
+        <v>517860</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lada/vesta_sw_cross/</t>
+          <t>https://park-auto-sm.ru/avto-new/lada/urban_3d/</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>703</t>
+          <t>430</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -4827,30 +4827,30 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Vesta SW Sportline New</t>
+          <t>Niva Urban 5 дверей</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>1465800</v>
+        <v>551400</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lada/vesta_sw_sportline/</t>
+          <t>https://park-auto-sm.ru/avto-new/lada/urban_5d/</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>1465800</v>
+        <v>551400</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lada/vesta_sw_sportline/</t>
+          <t>https://park-auto-sm.ru/avto-new/lada/urban_5d/</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>437</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -4860,30 +4860,30 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Vesta Sedan</t>
+          <t>Vesta Cross</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>743940</v>
+        <v>1055400</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lada/vesta/</t>
+          <t>https://park-auto-sm.ru/avto-new/lada/vesta_cross/</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>743940</v>
+        <v>1055400</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lada/vesta/</t>
+          <t>https://park-auto-sm.ru/avto-new/lada/vesta_cross/</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>436</t>
+          <t>443</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -4893,30 +4893,30 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Vesta Sedan CNG</t>
+          <t>Vesta SW</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>790140</v>
+        <v>993000</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lada/vesta_cng/</t>
+          <t>https://park-auto-sm.ru/avto-new/lada/vesta_sw/</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>790140</v>
+        <v>993000</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lada/vesta_cng/</t>
+          <t>https://park-auto-sm.ru/avto-new/lada/vesta_sw/</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>442</t>
+          <t>445</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -4926,30 +4926,30 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Vesta Sportline</t>
+          <t>Vesta SW Cross</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>1363800</v>
+        <v>1127400</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lada/Vesta_Sportline/</t>
+          <t>https://park-auto-sm.ru/avto-new/lada/vesta_sw_cross/</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>1363800</v>
+        <v>1127400</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lada/Vesta_Sportline/</t>
+          <t>https://park-auto-sm.ru/avto-new/lada/vesta_sw_cross/</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>703</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -4959,30 +4959,30 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Xray</t>
+          <t>Vesta SW Sportline New</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>664140</v>
+        <v>1465800</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lada/xray/</t>
+          <t>https://park-auto-sm.ru/avto-new/lada/vesta_sw_sportline/</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>664140</v>
+        <v>1465800</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lada/xray/</t>
+          <t>https://park-auto-sm.ru/avto-new/lada/vesta_sw_sportline/</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>448</t>
+          <t>435</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -4992,162 +4992,162 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Xray Cross</t>
+          <t>Vesta Sedan</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>749940</v>
+        <v>743940</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lada/xray_cross/</t>
+          <t>https://park-auto-sm.ru/avto-new/lada/vesta/</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>749940</v>
+        <v>743940</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lada/xray_cross/</t>
+          <t>https://park-auto-sm.ru/avto-new/lada/vesta/</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>436</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Lifan</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Murman</t>
+          <t>Vesta Sedan CNG</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>795540</v>
+        <v>790140</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lifan/murman/</t>
+          <t>https://park-auto-sm.ru/avto-new/lada/vesta_cng/</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>795540</v>
+        <v>790140</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lifan/murman/</t>
+          <t>https://park-auto-sm.ru/avto-new/lada/vesta_cng/</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>457</t>
+          <t>442</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Lifan</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>MyWay</t>
+          <t>Vesta Sportline</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>701940</v>
+        <v>1363800</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lifan/myway/</t>
+          <t>https://park-auto-sm.ru/avto-new/lada/Vesta_Sportline/</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>701940</v>
+        <v>1363800</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lifan/myway/</t>
+          <t>https://park-auto-sm.ru/avto-new/lada/Vesta_Sportline/</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>459</t>
+          <t>447</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Lifan</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Solano 2</t>
+          <t>Xray</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>425940</v>
+        <v>664140</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lifan/solano2/</t>
+          <t>https://park-auto-sm.ru/avto-new/lada/xray/</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>425940</v>
+        <v>664140</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lifan/solano2/</t>
+          <t>https://park-auto-sm.ru/avto-new/lada/xray/</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>460</t>
+          <t>448</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Lifan</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>X50</t>
+          <t>Xray Cross</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>538140</v>
+        <v>749940</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lifan/x50/</t>
+          <t>https://park-auto-sm.ru/avto-new/lada/xray_cross/</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>538140</v>
+        <v>749940</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lifan/x50/</t>
+          <t>https://park-auto-sm.ru/avto-new/lada/xray_cross/</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>461</t>
+          <t>455</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -5157,30 +5157,30 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>X60</t>
+          <t>Murman</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>600540</v>
+        <v>795540</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lifan/x60/</t>
+          <t>https://park-auto-sm.ru/avto-new/lifan/murman/</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>600540</v>
+        <v>795540</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lifan/x60/</t>
+          <t>https://park-auto-sm.ru/avto-new/lifan/murman/</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>463</t>
+          <t>457</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -5190,299 +5190,299 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>X70</t>
+          <t>MyWay</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>771420</v>
+        <v>701940</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lifan/x70/</t>
+          <t>https://park-auto-sm.ru/avto-new/lifan/myway/</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>771420</v>
+        <v>701940</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lifan/x70/</t>
+          <t>https://park-auto-sm.ru/avto-new/lifan/myway/</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>464</t>
+          <t>459</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Livan</t>
+          <t>Lifan</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>S6 Pro</t>
+          <t>Solano 2</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>1529940</v>
+        <v>425940</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/livan/S6PRO/</t>
+          <t>https://park-auto-sm.ru/avto-new/lifan/solano2/</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>1529940</v>
+        <v>425940</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/livan/S6PRO/</t>
+          <t>https://park-auto-sm.ru/avto-new/lifan/solano2/</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>465</t>
+          <t>460</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Livan</t>
+          <t>Lifan</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>X3 Pro</t>
+          <t>X50</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>1003200</v>
+        <v>538140</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/livan/x3pro/</t>
+          <t>https://park-auto-sm.ru/avto-new/lifan/x50/</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>1003200</v>
+        <v>538140</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/livan/x3pro/</t>
+          <t>https://park-auto-sm.ru/avto-new/lifan/x50/</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>466</t>
+          <t>461</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Livan</t>
+          <t>Lifan</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>X6 Pro</t>
+          <t>X60</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>1577940</v>
+        <v>600540</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/livan/%D0%A56PRO/</t>
+          <t>https://park-auto-sm.ru/avto-new/lifan/x60/</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>1577940</v>
+        <v>600540</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/livan/%D0%A56PRO/</t>
+          <t>https://park-auto-sm.ru/avto-new/lifan/x60/</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>492</t>
+          <t>463</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>Lifan</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>X70</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>1409400</v>
+        <v>771420</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/mg/mg_5/</t>
+          <t>https://park-auto-sm.ru/avto-new/lifan/x70/</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>1409400</v>
+        <v>771420</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/mg/mg_5/</t>
+          <t>https://park-auto-sm.ru/avto-new/lifan/x70/</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>493</t>
+          <t>464</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>Livan</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>S6 Pro</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>1739400</v>
+        <v>1529940</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/mg/mg_6/</t>
+          <t>https://park-auto-sm.ru/avto-new/livan/S6PRO/</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>1739400</v>
+        <v>1529940</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/mg/mg_6/</t>
+          <t>https://park-auto-sm.ru/avto-new/livan/S6PRO/</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>495</t>
+          <t>465</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>Livan</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>ZS</t>
+          <t>X3 Pro</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>1470000</v>
+        <v>1003200</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/mg/mg_zs/</t>
+          <t>https://park-auto-sm.ru/avto-new/livan/x3pro/</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>1470000</v>
+        <v>1003200</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/mg/mg_zs/</t>
+          <t>https://park-auto-sm.ru/avto-new/livan/x3pro/</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>466</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Moskvich</t>
+          <t>Livan</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>X6 Pro</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>954000</v>
+        <v>1577940</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/moskvich/moskvich_3/</t>
+          <t>https://park-auto-sm.ru/avto-new/livan/%D0%A56PRO/</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>954000</v>
+        <v>1577940</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/moskvich/moskvich_3/</t>
+          <t>https://park-auto-sm.ru/avto-new/livan/%D0%A56PRO/</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>510</t>
+          <t>492</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Moskvich</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>3e</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>2370000</v>
+        <v>1409400</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/moskvich/moskvich_3e/</t>
+          <t>https://park-auto-sm.ru/avto-new/mg/mg_5/</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>2370000</v>
+        <v>1409400</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/moskvich/moskvich_3e/</t>
+          <t>https://park-auto-sm.ru/avto-new/mg/mg_5/</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>493</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Moskvich</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -5491,479 +5491,710 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>1320000</v>
+        <v>1739400</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/moskvich/moskvich_6/</t>
+          <t>https://park-auto-sm.ru/avto-new/mg/mg_6/</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>1320000</v>
+        <v>1739400</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/moskvich/moskvich_6/</t>
+          <t>https://park-auto-sm.ru/avto-new/mg/mg_6/</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>489</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>OMODA</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>C5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>1607940</v>
+        <v>2382600</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/omoda/omoda_c5/</t>
+          <t>https://park-auto-sm.ru/avto-new/mg/7/</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>1607940</v>
+        <v>2382600</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/omoda/omoda_c5/</t>
+          <t>https://park-auto-sm.ru/avto-new/mg/7/</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>494</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>OMODA</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>S5</t>
+          <t>HS</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>1295940</v>
+        <v>2130000</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/omoda/omoda_s5/</t>
+          <t>https://park-auto-sm.ru/avto-new/mg/HS/</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>1295940</v>
+        <v>2130000</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/omoda/omoda_s5/</t>
+          <t>https://park-auto-sm.ru/avto-new/mg/HS/</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>527</t>
+          <t>834</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>OMODA</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>S5 GT</t>
+          <t>RX 5</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>1703940</v>
+        <v>1713000</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/omoda/S5_GT/</t>
+          <t>https://park-auto-sm.ru/avto-new/mg/RX5/</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>1703940</v>
+        <v>1713000</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/omoda/S5_GT/</t>
+          <t>https://park-auto-sm.ru/avto-new/mg/RX5/</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>594</t>
+          <t>495</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>ZS</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>1530000</v>
+        <v>1470000</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/solaris/solaris_hc/</t>
+          <t>https://park-auto-sm.ru/avto-new/mg/mg_zs/</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>1530000</v>
+        <v>1470000</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/solaris/solaris_hc/</t>
+          <t>https://park-auto-sm.ru/avto-new/mg/mg_zs/</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>595</t>
+          <t>509</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>Moskvich</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>HS</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>1260000</v>
+        <v>954000</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/solaris/solaris_hs/</t>
+          <t>https://park-auto-sm.ru/avto-new/moskvich/moskvich_3/</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>1260000</v>
+        <v>954000</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/solaris/solaris_hs/</t>
+          <t>https://park-auto-sm.ru/avto-new/moskvich/moskvich_3/</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>596</t>
+          <t>510</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>Moskvich</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>KRS</t>
+          <t>3e</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>1222800</v>
+        <v>2370000</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/solaris/krs/</t>
+          <t>https://park-auto-sm.ru/avto-new/moskvich/moskvich_3e/</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>1222800</v>
+        <v>2370000</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/solaris/krs/</t>
+          <t>https://park-auto-sm.ru/avto-new/moskvich/moskvich_3e/</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>597</t>
+          <t>511</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>Moskvich</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>KRX</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>1256400</v>
+        <v>1320000</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/solaris/krx/</t>
+          <t>https://park-auto-sm.ru/avto-new/moskvich/moskvich_6/</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>1256400</v>
+        <v>1320000</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/solaris/krx/</t>
+          <t>https://park-auto-sm.ru/avto-new/moskvich/moskvich_6/</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>525</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>TANK</t>
+          <t>OMODA</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>C5</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>2549400</v>
+        <v>1607940</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/tank/tank_300/</t>
+          <t>https://park-auto-sm.ru/avto-new/omoda/omoda_c5/</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>2549400</v>
+        <v>1607940</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/tank/tank_300/</t>
+          <t>https://park-auto-sm.ru/avto-new/omoda/omoda_c5/</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>770</t>
+          <t>526</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>TANK</t>
+          <t>OMODA</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>700</t>
+          <t>S5</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>5339400</v>
+        <v>1295940</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/tank/tank_700/</t>
+          <t>https://park-auto-sm.ru/avto-new/omoda/omoda_s5/</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>5339400</v>
+        <v>1295940</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/tank/tank_700/</t>
+          <t>https://park-auto-sm.ru/avto-new/omoda/omoda_s5/</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>633</t>
+          <t>527</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>UAZ</t>
+          <t>OMODA</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Hunter</t>
+          <t>S5 GT</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>837000</v>
+        <v>1703940</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/uaz/hunter/</t>
+          <t>https://park-auto-sm.ru/avto-new/omoda/S5_GT/</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>837000</v>
+        <v>1703940</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/uaz/hunter/</t>
+          <t>https://park-auto-sm.ru/avto-new/omoda/S5_GT/</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>634</t>
+          <t>594</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>UAZ</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Patriot</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>927000</v>
+        <v>1530000</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/uaz/patriot_new/</t>
+          <t>https://park-auto-sm.ru/avto-new/solaris/solaris_hc/</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>927000</v>
+        <v>1530000</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/uaz/patriot_new/</t>
+          <t>https://park-auto-sm.ru/avto-new/solaris/solaris_hc/</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>734</t>
+          <t>595</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>UAZ</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Patriot АКПП</t>
+          <t>HS</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>1161000</v>
+        <v>1260000</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/uaz/patrion_at/</t>
+          <t>https://park-auto-sm.ru/avto-new/solaris/solaris_hs/</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>1161000</v>
+        <v>1260000</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/uaz/patrion_at/</t>
+          <t>https://park-auto-sm.ru/avto-new/solaris/solaris_hs/</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>637</t>
+          <t>596</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>UAZ</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Pickup</t>
+          <t>KRS</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>942000</v>
+        <v>1222800</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/uaz/pickup_new/</t>
+          <t>https://park-auto-sm.ru/avto-new/solaris/krs/</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>942000</v>
+        <v>1222800</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/uaz/pickup_new/</t>
+          <t>https://park-auto-sm.ru/avto-new/solaris/krs/</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
+          <t>597</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Solaris</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>KRX</t>
+        </is>
+      </c>
+      <c r="D168" t="n">
+        <v>1256400</v>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>https://park-auto-sm.ru/avto-new/solaris/krx/</t>
+        </is>
+      </c>
+      <c r="F168" t="n">
+        <v>1256400</v>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>https://park-auto-sm.ru/avto-new/solaris/krx/</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>614</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>TANK</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="D169" t="n">
+        <v>2549400</v>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>https://park-auto-sm.ru/avto-new/tank/tank_300/</t>
+        </is>
+      </c>
+      <c r="F169" t="n">
+        <v>2549400</v>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>https://park-auto-sm.ru/avto-new/tank/tank_300/</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>770</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>TANK</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>700</t>
+        </is>
+      </c>
+      <c r="D170" t="n">
+        <v>5339400</v>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>https://park-auto-sm.ru/avto-new/tank/tank_700/</t>
+        </is>
+      </c>
+      <c r="F170" t="n">
+        <v>5339400</v>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>https://park-auto-sm.ru/avto-new/tank/tank_700/</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>633</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>UAZ</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Hunter</t>
+        </is>
+      </c>
+      <c r="D171" t="n">
+        <v>837000</v>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>https://park-auto-sm.ru/avto-new/uaz/hunter/</t>
+        </is>
+      </c>
+      <c r="F171" t="n">
+        <v>837000</v>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>https://park-auto-sm.ru/avto-new/uaz/hunter/</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>634</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>UAZ</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Patriot</t>
+        </is>
+      </c>
+      <c r="D172" t="n">
+        <v>927000</v>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>https://park-auto-sm.ru/avto-new/uaz/patriot_new/</t>
+        </is>
+      </c>
+      <c r="F172" t="n">
+        <v>927000</v>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>https://park-auto-sm.ru/avto-new/uaz/patriot_new/</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>734</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>UAZ</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Patriot АКПП</t>
+        </is>
+      </c>
+      <c r="D173" t="n">
+        <v>1161000</v>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>https://park-auto-sm.ru/avto-new/uaz/patrion_at/</t>
+        </is>
+      </c>
+      <c r="F173" t="n">
+        <v>1161000</v>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>https://park-auto-sm.ru/avto-new/uaz/patrion_at/</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>637</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>UAZ</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Pickup</t>
+        </is>
+      </c>
+      <c r="D174" t="n">
+        <v>942000</v>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>https://park-auto-sm.ru/avto-new/uaz/pickup_new/</t>
+        </is>
+      </c>
+      <c r="F174" t="n">
+        <v>942000</v>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>https://park-auto-sm.ru/avto-new/uaz/pickup_new/</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
           <t>828</t>
         </is>
       </c>
-      <c r="B168" t="inlineStr">
+      <c r="B175" t="inlineStr">
         <is>
           <t>UAZ</t>
         </is>
       </c>
-      <c r="C168" t="inlineStr">
+      <c r="C175" t="inlineStr">
         <is>
           <t>Pickup АКПП</t>
         </is>
       </c>
-      <c r="D168" t="n">
+      <c r="D175" t="n">
         <v>1215000</v>
       </c>
-      <c r="E168" t="inlineStr">
+      <c r="E175" t="inlineStr">
         <is>
           <t>https://park-auto-sm.ru/avto-new/uaz/UAZ_Pickup_akpp/</t>
         </is>
       </c>
-      <c r="F168" t="n">
+      <c r="F175" t="n">
         <v>1215000</v>
       </c>
-      <c r="G168" t="inlineStr">
+      <c r="G175" t="inlineStr">
         <is>
           <t>https://park-auto-sm.ru/avto-new/uaz/UAZ_Pickup_akpp/</t>
         </is>

--- a/xlsx/samara.xlsx
+++ b/xlsx/samara.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G175"/>
+  <dimension ref="A1:G177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5774,7 +5774,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>820</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -5784,30 +5784,30 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>S5</t>
+          <t>C5 New</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>1295940</v>
+        <v>1541940</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/omoda/omoda_s5/</t>
+          <t>https://park-auto-sm.ru/avto-new/omoda/omoda_c5_new/</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>1295940</v>
+        <v>1541940</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/omoda/omoda_s5/</t>
+          <t>https://park-auto-sm.ru/avto-new/omoda/omoda_c5_new/</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>527</t>
+          <t>526</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -5817,63 +5817,63 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>S5 GT</t>
+          <t>S5</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>1703940</v>
+        <v>1295940</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/omoda/S5_GT/</t>
+          <t>https://park-auto-sm.ru/avto-new/omoda/omoda_s5/</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>1703940</v>
+        <v>1295940</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/omoda/S5_GT/</t>
+          <t>https://park-auto-sm.ru/avto-new/omoda/omoda_s5/</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>594</t>
+          <t>527</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>OMODA</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>S5 GT</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>1530000</v>
+        <v>1703940</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/solaris/solaris_hc/</t>
+          <t>https://park-auto-sm.ru/avto-new/omoda/S5_GT/</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>1530000</v>
+        <v>1703940</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/solaris/solaris_hc/</t>
+          <t>https://park-auto-sm.ru/avto-new/omoda/S5_GT/</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>595</t>
+          <t>594</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -5883,30 +5883,30 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>HS</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>1260000</v>
+        <v>1530000</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/solaris/solaris_hs/</t>
+          <t>https://park-auto-sm.ru/avto-new/solaris/solaris_hc/</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>1260000</v>
+        <v>1530000</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/solaris/solaris_hs/</t>
+          <t>https://park-auto-sm.ru/avto-new/solaris/solaris_hc/</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>596</t>
+          <t>595</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -5916,30 +5916,30 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>KRS</t>
+          <t>HS</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>1222800</v>
+        <v>1260000</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/solaris/krs/</t>
+          <t>https://park-auto-sm.ru/avto-new/solaris/solaris_hs/</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>1222800</v>
+        <v>1260000</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/solaris/krs/</t>
+          <t>https://park-auto-sm.ru/avto-new/solaris/solaris_hs/</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>597</t>
+          <t>596</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -5949,63 +5949,63 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>KRX</t>
+          <t>KRS</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>1256400</v>
+        <v>1222800</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/solaris/krx/</t>
+          <t>https://park-auto-sm.ru/avto-new/solaris/krs/</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>1256400</v>
+        <v>1222800</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/solaris/krx/</t>
+          <t>https://park-auto-sm.ru/avto-new/solaris/krs/</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>597</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>TANK</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>KRX</t>
         </is>
       </c>
       <c r="D169" t="n">
-        <v>2549400</v>
+        <v>1256400</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/tank/tank_300/</t>
+          <t>https://park-auto-sm.ru/avto-new/solaris/krx/</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>2549400</v>
+        <v>1256400</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/tank/tank_300/</t>
+          <t>https://park-auto-sm.ru/avto-new/solaris/krx/</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>770</t>
+          <t>614</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -6015,63 +6015,63 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>700</t>
+          <t>300</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>5339400</v>
+        <v>2549400</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/tank/tank_700/</t>
+          <t>https://park-auto-sm.ru/avto-new/tank/tank_300/</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>5339400</v>
+        <v>2549400</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/tank/tank_700/</t>
+          <t>https://park-auto-sm.ru/avto-new/tank/tank_300/</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>633</t>
+          <t>770</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>UAZ</t>
+          <t>TANK</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Hunter</t>
+          <t>700</t>
         </is>
       </c>
       <c r="D171" t="n">
-        <v>837000</v>
+        <v>5339400</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/uaz/hunter/</t>
+          <t>https://park-auto-sm.ru/avto-new/tank/tank_700/</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>837000</v>
+        <v>5339400</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/uaz/hunter/</t>
+          <t>https://park-auto-sm.ru/avto-new/tank/tank_700/</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>634</t>
+          <t>633</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -6081,30 +6081,30 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Patriot</t>
+          <t>Hunter</t>
         </is>
       </c>
       <c r="D172" t="n">
-        <v>927000</v>
+        <v>837000</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/uaz/patriot_new/</t>
+          <t>https://park-auto-sm.ru/avto-new/uaz/hunter/</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>927000</v>
+        <v>837000</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/uaz/patriot_new/</t>
+          <t>https://park-auto-sm.ru/avto-new/uaz/hunter/</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>734</t>
+          <t>634</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -6114,30 +6114,30 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Patriot АКПП</t>
+          <t>Patriot</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>1161000</v>
+        <v>927000</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/uaz/patrion_at/</t>
+          <t>https://park-auto-sm.ru/avto-new/uaz/patriot_new/</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>1161000</v>
+        <v>927000</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/uaz/patrion_at/</t>
+          <t>https://park-auto-sm.ru/avto-new/uaz/patriot_new/</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>637</t>
+          <t>734</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -6147,56 +6147,122 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Pickup</t>
+          <t>Patriot АКПП</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>942000</v>
+        <v>1161000</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/uaz/pickup_new/</t>
+          <t>https://park-auto-sm.ru/avto-new/uaz/patrion_at/</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>942000</v>
+        <v>1161000</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/uaz/pickup_new/</t>
+          <t>https://park-auto-sm.ru/avto-new/uaz/patrion_at/</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
+          <t>637</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>UAZ</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Pickup</t>
+        </is>
+      </c>
+      <c r="D175" t="n">
+        <v>942000</v>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>https://park-auto-sm.ru/avto-new/uaz/pickup_new/</t>
+        </is>
+      </c>
+      <c r="F175" t="n">
+        <v>942000</v>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>https://park-auto-sm.ru/avto-new/uaz/pickup_new/</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
           <t>828</t>
         </is>
       </c>
-      <c r="B175" t="inlineStr">
+      <c r="B176" t="inlineStr">
         <is>
           <t>UAZ</t>
         </is>
       </c>
-      <c r="C175" t="inlineStr">
+      <c r="C176" t="inlineStr">
         <is>
           <t>Pickup АКПП</t>
         </is>
       </c>
-      <c r="D175" t="n">
+      <c r="D176" t="n">
         <v>1215000</v>
       </c>
-      <c r="E175" t="inlineStr">
+      <c r="E176" t="inlineStr">
         <is>
           <t>https://park-auto-sm.ru/avto-new/uaz/UAZ_Pickup_akpp/</t>
         </is>
       </c>
-      <c r="F175" t="n">
+      <c r="F176" t="n">
         <v>1215000</v>
       </c>
-      <c r="G175" t="inlineStr">
+      <c r="G176" t="inlineStr">
         <is>
           <t>https://park-auto-sm.ru/avto-new/uaz/UAZ_Pickup_akpp/</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Новая машина, необходимо назначить id</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>mg</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>rx8</t>
+        </is>
+      </c>
+      <c r="D177" t="n">
+        <v>2544000</v>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>https://park-auto-sm.ru/avto-new/mg/RX8/</t>
+        </is>
+      </c>
+      <c r="F177" t="n">
+        <v>2544000</v>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>https://park-auto-sm.ru/avto-new/mg/RX8/</t>
         </is>
       </c>
     </row>

--- a/xlsx/samara.xlsx
+++ b/xlsx/samara.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G177"/>
+  <dimension ref="A1:G178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2158,7 +2158,7 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>2430000</v>
+        <v>2448000</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -2166,7 +2166,7 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2430000</v>
+        <v>2448000</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -2224,7 +2224,7 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>3360000</v>
+        <v>3408000</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -2232,7 +2232,7 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>3360000</v>
+        <v>3408000</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -2917,7 +2917,7 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>2069400</v>
+        <v>2129400</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>2069400</v>
+        <v>2129400</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -2950,7 +2950,7 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>1919400</v>
+        <v>1979400</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -2958,7 +2958,7 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>1919400</v>
+        <v>1979400</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>886000</v>
+        <v>935520</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -3313,7 +3313,7 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>1199400</v>
+        <v>959520</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -3812,7 +3812,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/jetour/X-50/</t>
+          <t>https://park-auto-sm.ru/avto-new/jetour/X_50/</t>
         </is>
       </c>
       <c r="F103" t="n">
@@ -3820,7 +3820,7 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/jetour/X-50/</t>
+          <t>https://park-auto-sm.ru/avto-new/jetour/X_50/</t>
         </is>
       </c>
     </row>
@@ -5609,7 +5609,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>495</t>
+          <t>842</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -5619,96 +5619,96 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>ZS</t>
+          <t>RX 8</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>1470000</v>
+        <v>2544000</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/mg/mg_zs/</t>
+          <t>https://park-auto-sm.ru/avto-new/mg/RX8/</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>1470000</v>
+        <v>2544000</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/mg/mg_zs/</t>
+          <t>https://park-auto-sm.ru/avto-new/mg/RX8/</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>841</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Moskvich</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>RX 9</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>954000</v>
+        <v>2970000</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/moskvich/moskvich_3/</t>
+          <t>https://park-auto-sm.ru/avto-new/mg/RX9/</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>954000</v>
+        <v>2970000</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/moskvich/moskvich_3/</t>
+          <t>https://park-auto-sm.ru/avto-new/mg/RX9/</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>510</t>
+          <t>495</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Moskvich</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>3e</t>
+          <t>ZS</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>2370000</v>
+        <v>1470000</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/moskvich/moskvich_3e/</t>
+          <t>https://park-auto-sm.ru/avto-new/mg/mg_zs/</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>2370000</v>
+        <v>1470000</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/moskvich/moskvich_3e/</t>
+          <t>https://park-auto-sm.ru/avto-new/mg/mg_zs/</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>509</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -5718,96 +5718,96 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>1320000</v>
+        <v>954000</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/moskvich/moskvich_6/</t>
+          <t>https://park-auto-sm.ru/avto-new/moskvich/moskvich_3/</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>1320000</v>
+        <v>954000</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/moskvich/moskvich_6/</t>
+          <t>https://park-auto-sm.ru/avto-new/moskvich/moskvich_3/</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>510</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>OMODA</t>
+          <t>Moskvich</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>C5</t>
+          <t>3e</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>1607940</v>
+        <v>2370000</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/omoda/omoda_c5/</t>
+          <t>https://park-auto-sm.ru/avto-new/moskvich/moskvich_3e/</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>1607940</v>
+        <v>2370000</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/omoda/omoda_c5/</t>
+          <t>https://park-auto-sm.ru/avto-new/moskvich/moskvich_3e/</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>820</t>
+          <t>511</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>OMODA</t>
+          <t>Moskvich</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>C5 New</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>1541940</v>
+        <v>1320000</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/omoda/omoda_c5_new/</t>
+          <t>https://park-auto-sm.ru/avto-new/moskvich/moskvich_6/</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>1541940</v>
+        <v>1320000</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/omoda/omoda_c5_new/</t>
+          <t>https://park-auto-sm.ru/avto-new/moskvich/moskvich_6/</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>525</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -5817,30 +5817,30 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>S5</t>
+          <t>C5</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>1295940</v>
+        <v>1421940</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/omoda/omoda_s5/</t>
+          <t>https://park-auto-sm.ru/avto-new/omoda/omoda_c5/</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>1295940</v>
+        <v>1421940</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/omoda/omoda_s5/</t>
+          <t>https://park-auto-sm.ru/avto-new/omoda/omoda_c5/</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>527</t>
+          <t>820</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -5850,96 +5850,96 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>S5 GT</t>
+          <t>C5 New</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>1703940</v>
+        <v>1541940</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/omoda/S5_GT/</t>
+          <t>https://park-auto-sm.ru/avto-new/omoda/omoda_c5_new/</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>1703940</v>
+        <v>1541940</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/omoda/S5_GT/</t>
+          <t>https://park-auto-sm.ru/avto-new/omoda/omoda_c5_new/</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>594</t>
+          <t>526</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>OMODA</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>S5</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>1530000</v>
+        <v>1295940</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/solaris/solaris_hc/</t>
+          <t>https://park-auto-sm.ru/avto-new/omoda/omoda_s5/</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>1530000</v>
+        <v>1295940</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/solaris/solaris_hc/</t>
+          <t>https://park-auto-sm.ru/avto-new/omoda/omoda_s5/</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>595</t>
+          <t>527</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>OMODA</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>HS</t>
+          <t>S5 GT</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>1260000</v>
+        <v>1703940</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/solaris/solaris_hs/</t>
+          <t>https://park-auto-sm.ru/avto-new/omoda/S5_GT/</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>1260000</v>
+        <v>1703940</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/solaris/solaris_hs/</t>
+          <t>https://park-auto-sm.ru/avto-new/omoda/S5_GT/</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>596</t>
+          <t>594</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -5949,30 +5949,30 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>KRS</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>1222800</v>
+        <v>1530000</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/solaris/krs/</t>
+          <t>https://park-auto-sm.ru/avto-new/solaris/solaris_hc/</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>1222800</v>
+        <v>1530000</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/solaris/krs/</t>
+          <t>https://park-auto-sm.ru/avto-new/solaris/solaris_hc/</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>597</t>
+          <t>595</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -5982,162 +5982,162 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>KRX</t>
+          <t>HS</t>
         </is>
       </c>
       <c r="D169" t="n">
-        <v>1256400</v>
+        <v>1260000</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/solaris/krx/</t>
+          <t>https://park-auto-sm.ru/avto-new/solaris/solaris_hs/</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>1256400</v>
+        <v>1260000</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/solaris/krx/</t>
+          <t>https://park-auto-sm.ru/avto-new/solaris/solaris_hs/</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>596</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>TANK</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>KRS</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>2549400</v>
+        <v>1222800</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/tank/tank_300/</t>
+          <t>https://park-auto-sm.ru/avto-new/solaris/krs/</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>2549400</v>
+        <v>1222800</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/tank/tank_300/</t>
+          <t>https://park-auto-sm.ru/avto-new/solaris/krs/</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>770</t>
+          <t>597</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>TANK</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>700</t>
+          <t>KRX</t>
         </is>
       </c>
       <c r="D171" t="n">
-        <v>5339400</v>
+        <v>1256400</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/tank/tank_700/</t>
+          <t>https://park-auto-sm.ru/avto-new/solaris/krx/</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>5339400</v>
+        <v>1256400</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/tank/tank_700/</t>
+          <t>https://park-auto-sm.ru/avto-new/solaris/krx/</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>633</t>
+          <t>614</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>UAZ</t>
+          <t>TANK</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Hunter</t>
+          <t>300</t>
         </is>
       </c>
       <c r="D172" t="n">
-        <v>837000</v>
+        <v>2549400</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/uaz/hunter/</t>
+          <t>https://park-auto-sm.ru/avto-new/tank/tank_300/</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>837000</v>
+        <v>2549400</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/uaz/hunter/</t>
+          <t>https://park-auto-sm.ru/avto-new/tank/tank_300/</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>634</t>
+          <t>770</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>UAZ</t>
+          <t>TANK</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Patriot</t>
+          <t>700</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>927000</v>
+        <v>5339400</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/uaz/patriot_new/</t>
+          <t>https://park-auto-sm.ru/avto-new/tank/tank_700/</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>927000</v>
+        <v>5339400</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/uaz/patriot_new/</t>
+          <t>https://park-auto-sm.ru/avto-new/tank/tank_700/</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>734</t>
+          <t>633</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -6147,30 +6147,30 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Patriot АКПП</t>
+          <t>Hunter</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>1161000</v>
+        <v>837000</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/uaz/patrion_at/</t>
+          <t>https://park-auto-sm.ru/avto-new/uaz/hunter/</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>1161000</v>
+        <v>837000</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/uaz/patrion_at/</t>
+          <t>https://park-auto-sm.ru/avto-new/uaz/hunter/</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>637</t>
+          <t>634</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -6180,30 +6180,30 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Pickup</t>
+          <t>Patriot</t>
         </is>
       </c>
       <c r="D175" t="n">
-        <v>942000</v>
+        <v>927000</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/uaz/pickup_new/</t>
+          <t>https://park-auto-sm.ru/avto-new/uaz/patriot_new/</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>942000</v>
+        <v>927000</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/uaz/pickup_new/</t>
+          <t>https://park-auto-sm.ru/avto-new/uaz/patriot_new/</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>828</t>
+          <t>734</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -6213,56 +6213,89 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Pickup АКПП</t>
+          <t>Patriot АКПП</t>
         </is>
       </c>
       <c r="D176" t="n">
-        <v>1215000</v>
+        <v>1161000</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/uaz/UAZ_Pickup_akpp/</t>
+          <t>https://park-auto-sm.ru/avto-new/uaz/patrion_at/</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>1215000</v>
+        <v>1161000</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/uaz/UAZ_Pickup_akpp/</t>
+          <t>https://park-auto-sm.ru/avto-new/uaz/patrion_at/</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Новая машина, необходимо назначить id</t>
+          <t>637</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>mg</t>
+          <t>UAZ</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>rx8</t>
+          <t>Pickup</t>
         </is>
       </c>
       <c r="D177" t="n">
-        <v>2544000</v>
+        <v>942000</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/mg/RX8/</t>
+          <t>https://park-auto-sm.ru/avto-new/uaz/pickup_new/</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>2544000</v>
+        <v>942000</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/mg/RX8/</t>
+          <t>https://park-auto-sm.ru/avto-new/uaz/pickup_new/</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>828</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>UAZ</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Pickup АКПП</t>
+        </is>
+      </c>
+      <c r="D178" t="n">
+        <v>1215000</v>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>https://park-auto-sm.ru/avto-new/uaz/UAZ_Pickup_akpp/</t>
+        </is>
+      </c>
+      <c r="F178" t="n">
+        <v>1215000</v>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>https://park-auto-sm.ru/avto-new/uaz/UAZ_Pickup_akpp/</t>
         </is>
       </c>
     </row>

--- a/xlsx/samara.xlsx
+++ b/xlsx/samara.xlsx
@@ -3280,7 +3280,7 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>935520</v>
+        <v>886000</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -3313,7 +3313,7 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>959520</v>
+        <v>1199400</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>

--- a/xlsx/samara.xlsx
+++ b/xlsx/samara.xlsx
@@ -1795,7 +1795,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>779400</v>
+        <v>721710</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1803,7 +1803,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>779400</v>
+        <v>721710</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>

--- a/xlsx/samara.xlsx
+++ b/xlsx/samara.xlsx
@@ -4237,7 +4237,7 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>684000</v>
+        <v>705000</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -4245,7 +4245,7 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>684000</v>
+        <v>705000</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -4336,7 +4336,7 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>625200</v>
+        <v>646200</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -4344,7 +4344,7 @@
         </is>
       </c>
       <c r="F119" t="n">
-        <v>625200</v>
+        <v>646200</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -4369,7 +4369,7 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>419940</v>
+        <v>449940</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -4377,7 +4377,7 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>419940</v>
+        <v>449940</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>

--- a/xlsx/samara.xlsx
+++ b/xlsx/samara.xlsx
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>861000</v>
+        <v>892200</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -4179,7 +4179,7 @@
         </is>
       </c>
       <c r="F114" t="n">
-        <v>861000</v>
+        <v>892200</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -4435,7 +4435,7 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>892800</v>
+        <v>919800</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -4443,7 +4443,7 @@
         </is>
       </c>
       <c r="F122" t="n">
-        <v>892800</v>
+        <v>919800</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -4468,7 +4468,7 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>868800</v>
+        <v>895800</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -4476,7 +4476,7 @@
         </is>
       </c>
       <c r="F123" t="n">
-        <v>868800</v>
+        <v>895800</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -4501,7 +4501,7 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>780600</v>
+        <v>804600</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="F124" t="n">
-        <v>780600</v>
+        <v>804600</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -4534,7 +4534,7 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>804600</v>
+        <v>828600</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -4542,7 +4542,7 @@
         </is>
       </c>
       <c r="F125" t="n">
-        <v>804600</v>
+        <v>828600</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>588600</v>
+        <v>635400</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -4707,7 +4707,7 @@
         </is>
       </c>
       <c r="F130" t="n">
-        <v>588600</v>
+        <v>635400</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>

--- a/xlsx/samara.xlsx
+++ b/xlsx/samara.xlsx
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1050000</v>
+        <v>972000</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -714,7 +714,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1050000</v>
+        <v>972000</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -805,7 +805,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1403940</v>
+        <v>1001940</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -813,7 +813,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1403940</v>
+        <v>1001940</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1709940</v>
+        <v>1956000</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -945,7 +945,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1709940</v>
+        <v>1956000</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1069,7 +1069,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>2507940</v>
+        <v>2495940</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1077,7 +1077,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2507940</v>
+        <v>2495940</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1102,7 +1102,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1397940</v>
+        <v>1307940</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1110,7 +1110,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1397940</v>
+        <v>1307940</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1168,7 +1168,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1673940</v>
+        <v>1421940</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1176,7 +1176,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1673940</v>
+        <v>1421940</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>2039940</v>
+        <v>1967940</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2039940</v>
+        <v>1967940</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1234,7 +1234,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>3131940</v>
+        <v>2777940</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1242,7 +1242,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>3131940</v>
+        <v>2777940</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1389000</v>
+        <v>1319000</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1275,7 +1275,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1389000</v>
+        <v>1319000</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1300,7 +1300,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1655940</v>
+        <v>1631940</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1308,7 +1308,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1655940</v>
+        <v>1631940</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1729,7 +1729,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>2850000</v>
+        <v>2490000</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1737,7 +1737,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2850000</v>
+        <v>2490000</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>1619994</v>
+        <v>1499994</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -2628,7 +2628,7 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>1619994</v>
+        <v>1499994</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -2653,7 +2653,7 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>963300</v>
+        <v>1033300</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>963300</v>
+        <v>1033300</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1267794</v>
+        <v>1133994</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>1267794</v>
+        <v>1133994</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -2785,7 +2785,7 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>2596194</v>
+        <v>2303994</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -2793,7 +2793,7 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>2596194</v>
+        <v>2303994</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -2818,7 +2818,7 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>2117394</v>
+        <v>1961994</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -2826,7 +2826,7 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>2117394</v>
+        <v>1961994</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -3016,7 +3016,7 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>1687000</v>
+        <v>1787000</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -3024,7 +3024,7 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>1687000</v>
+        <v>1787000</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>2009400</v>
+        <v>2069400</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -3057,7 +3057,7 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>2009400</v>
+        <v>2069400</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>1619400</v>
+        <v>1709400</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -3123,7 +3123,7 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>1619400</v>
+        <v>1709400</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -3313,7 +3313,7 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>1199400</v>
+        <v>1289400</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>1199400</v>
+        <v>1289400</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>

--- a/xlsx/samara.xlsx
+++ b/xlsx/samara.xlsx
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>972000</v>
+        <v>1110000</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -714,7 +714,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>972000</v>
+        <v>1110000</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -805,7 +805,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1001940</v>
+        <v>1541940</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -813,7 +813,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1001940</v>
+        <v>1541940</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1956000</v>
+        <v>2274000</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -945,7 +945,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1956000</v>
+        <v>2274000</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1069,7 +1069,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>2495940</v>
+        <v>2717940</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1077,7 +1077,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2495940</v>
+        <v>2717940</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1102,7 +1102,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1307940</v>
+        <v>1463940</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1110,7 +1110,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1307940</v>
+        <v>1463940</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1168,7 +1168,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1421940</v>
+        <v>1721940</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1176,7 +1176,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1421940</v>
+        <v>1721940</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1967940</v>
+        <v>2381940</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1967940</v>
+        <v>2381940</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1234,7 +1234,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>2777940</v>
+        <v>3131940</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1242,7 +1242,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2777940</v>
+        <v>3131940</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1319000</v>
+        <v>1589000</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1275,7 +1275,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1319000</v>
+        <v>1589000</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1300,7 +1300,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1631940</v>
+        <v>1841940</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1308,7 +1308,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1631940</v>
+        <v>1841940</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1333,7 +1333,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1722000</v>
+        <v>1740000</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1722000</v>
+        <v>1740000</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1399,7 +1399,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>1398000</v>
+        <v>1428000</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1407,7 +1407,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1398000</v>
+        <v>1428000</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>802900</v>
+        <v>852900</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>802900</v>
+        <v>852900</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1976394</v>
+        <v>2107794</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -2562,7 +2562,7 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1976394</v>
+        <v>2107794</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>1499994</v>
+        <v>1709994</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -2628,7 +2628,7 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>1499994</v>
+        <v>1709994</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -2686,7 +2686,7 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>1583994</v>
+        <v>1676994</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -2694,7 +2694,7 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>1583994</v>
+        <v>1676994</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1133994</v>
+        <v>1307994</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>1133994</v>
+        <v>1307994</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -2785,7 +2785,7 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>2303994</v>
+        <v>2729994</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -2793,7 +2793,7 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>2303994</v>
+        <v>2729994</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -2818,7 +2818,7 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>1961994</v>
+        <v>2215794</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -2826,7 +2826,7 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>1961994</v>
+        <v>2215794</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>

--- a/xlsx/samara.xlsx
+++ b/xlsx/samara.xlsx
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>852900</v>
+        <v>1082900</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>852900</v>
+        <v>1082900</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>

--- a/xlsx/samara.xlsx
+++ b/xlsx/samara.xlsx
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1110000</v>
+        <v>1050000</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -714,7 +714,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1110000</v>
+        <v>1050000</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -805,7 +805,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1541940</v>
+        <v>1403940</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -813,7 +813,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1541940</v>
+        <v>1403940</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>2274000</v>
+        <v>1709940</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -945,7 +945,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2274000</v>
+        <v>1709940</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1069,7 +1069,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>2717940</v>
+        <v>2507940</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1077,7 +1077,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2717940</v>
+        <v>2507940</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1102,7 +1102,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1463940</v>
+        <v>1397940</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1110,7 +1110,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1463940</v>
+        <v>1397940</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1168,7 +1168,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1721940</v>
+        <v>1673940</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1176,7 +1176,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1721940</v>
+        <v>1673940</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>2381940</v>
+        <v>2039940</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2381940</v>
+        <v>2039940</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1589000</v>
+        <v>1389000</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1275,7 +1275,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1589000</v>
+        <v>1389000</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1300,7 +1300,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1841940</v>
+        <v>1655940</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1308,7 +1308,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1841940</v>
+        <v>1655940</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1333,7 +1333,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1740000</v>
+        <v>1722000</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1740000</v>
+        <v>1722000</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1399,7 +1399,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>1428000</v>
+        <v>1398000</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1407,7 +1407,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1428000</v>
+        <v>1398000</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>1082900</v>
+        <v>802900</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1082900</v>
+        <v>802900</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1729,7 +1729,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>2490000</v>
+        <v>2850000</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1737,7 +1737,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2490000</v>
+        <v>2850000</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>2107794</v>
+        <v>1976394</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -2562,7 +2562,7 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>2107794</v>
+        <v>1976394</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>1709994</v>
+        <v>1619994</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -2628,7 +2628,7 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>1709994</v>
+        <v>1619994</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -2653,7 +2653,7 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1033300</v>
+        <v>963300</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>1033300</v>
+        <v>963300</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -2686,7 +2686,7 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>1676994</v>
+        <v>1583994</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -2694,7 +2694,7 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>1676994</v>
+        <v>1583994</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1307994</v>
+        <v>1267794</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>1307994</v>
+        <v>1267794</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -2785,7 +2785,7 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>2729994</v>
+        <v>2596194</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -2793,7 +2793,7 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>2729994</v>
+        <v>2596194</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -2818,7 +2818,7 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>2215794</v>
+        <v>2117394</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -2826,7 +2826,7 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>2215794</v>
+        <v>2117394</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -3016,7 +3016,7 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>1787000</v>
+        <v>1687000</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -3024,7 +3024,7 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>1787000</v>
+        <v>1687000</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>2069400</v>
+        <v>2009400</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -3057,7 +3057,7 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>2069400</v>
+        <v>2009400</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>1709400</v>
+        <v>1619400</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -3123,7 +3123,7 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>1709400</v>
+        <v>1619400</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -3313,7 +3313,7 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>1289400</v>
+        <v>1199400</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>1289400</v>
+        <v>1199400</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>

--- a/xlsx/samara.xlsx
+++ b/xlsx/samara.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G178"/>
+  <dimension ref="A1:G179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1050000</v>
+        <v>1110000</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -714,7 +714,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1050000</v>
+        <v>1110000</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -805,7 +805,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1403940</v>
+        <v>1541940</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -813,7 +813,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1403940</v>
+        <v>1541940</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1709940</v>
+        <v>2274000</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -945,7 +945,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1709940</v>
+        <v>2274000</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1069,7 +1069,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>2507940</v>
+        <v>2717940</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1077,7 +1077,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2507940</v>
+        <v>2717940</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1102,7 +1102,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1397940</v>
+        <v>1463940</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1110,7 +1110,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1397940</v>
+        <v>1463940</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1168,7 +1168,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1673940</v>
+        <v>1721940</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1176,7 +1176,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1673940</v>
+        <v>1721940</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>2039940</v>
+        <v>2381940</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2039940</v>
+        <v>2381940</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1389000</v>
+        <v>1589000</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1275,7 +1275,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1389000</v>
+        <v>1589000</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1300,7 +1300,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1655940</v>
+        <v>1841940</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1308,7 +1308,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1655940</v>
+        <v>1841940</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1333,7 +1333,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1722000</v>
+        <v>1740000</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1722000</v>
+        <v>1740000</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1399,7 +1399,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>1398000</v>
+        <v>1428000</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1407,7 +1407,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1398000</v>
+        <v>1428000</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>802900</v>
+        <v>1082900</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>802900</v>
+        <v>1082900</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1976394</v>
+        <v>2107794</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -2562,7 +2562,7 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1976394</v>
+        <v>2107794</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>1619994</v>
+        <v>1709994</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -2628,7 +2628,7 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>1619994</v>
+        <v>1709994</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -2686,7 +2686,7 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>1583994</v>
+        <v>1676994</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -2694,7 +2694,7 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>1583994</v>
+        <v>1676994</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -2705,7 +2705,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>881</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2715,30 +2715,30 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Emgrand</t>
+          <t>EX5</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1267794</v>
+        <v>2459994</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/geely/emgrand_NEW/</t>
+          <t>https://park-auto-sm.ru/avto-new/geely/ex5/</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>1267794</v>
+        <v>2459994</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/geely/emgrand_NEW/</t>
+          <t>https://park-auto-sm.ru/avto-new/geely/ex5/</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2748,30 +2748,30 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>Emgrand</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1154400</v>
+        <v>1307994</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/geely/gs/</t>
+          <t>https://park-auto-sm.ru/avto-new/geely/emgrand_NEW/</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>1154400</v>
+        <v>1307994</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/geely/gs/</t>
+          <t>https://park-auto-sm.ru/avto-new/geely/emgrand_NEW/</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2781,30 +2781,30 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Monjaro</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>2596194</v>
+        <v>1154400</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/geely/monjaro/</t>
+          <t>https://park-auto-sm.ru/avto-new/geely/gs/</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>2596194</v>
+        <v>1154400</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/geely/monjaro/</t>
+          <t>https://park-auto-sm.ru/avto-new/geely/gs/</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2814,30 +2814,30 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Okavango</t>
+          <t>Monjaro</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>2117394</v>
+        <v>2729994</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/geely/okavango/</t>
+          <t>https://park-auto-sm.ru/avto-new/geely/monjaro/</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>2117394</v>
+        <v>2729994</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/geely/okavango/</t>
+          <t>https://park-auto-sm.ru/avto-new/geely/monjaro/</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>267</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2847,30 +2847,30 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Preface</t>
+          <t>Okavango</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>1380000</v>
+        <v>2215794</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/geely/preface/</t>
+          <t>https://park-auto-sm.ru/avto-new/geely/okavango/</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>1380000</v>
+        <v>2215794</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/geely/preface/</t>
+          <t>https://park-auto-sm.ru/avto-new/geely/okavango/</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>269</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2880,63 +2880,63 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Tugella New</t>
+          <t>Preface</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>2146990</v>
+        <v>1380000</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/geely/tugella_new/</t>
+          <t>https://park-auto-sm.ru/avto-new/geely/preface/</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>2146990</v>
+        <v>1380000</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/geely/tugella_new/</t>
+          <t>https://park-auto-sm.ru/avto-new/geely/preface/</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Great Wall</t>
+          <t>Geely</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>POER</t>
+          <t>Tugella New</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>2129400</v>
+        <v>2146990</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/great+wall/gwm_poer/</t>
+          <t>https://park-auto-sm.ru/avto-new/geely/tugella_new/</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>2129400</v>
+        <v>2146990</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/great+wall/gwm_poer/</t>
+          <t>https://park-auto-sm.ru/avto-new/geely/tugella_new/</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2946,30 +2946,30 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>POER King Kong</t>
+          <t>POER</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>1979400</v>
+        <v>2129400</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/great+wall/poer_kingkong/</t>
+          <t>https://park-auto-sm.ru/avto-new/great+wall/gwm_poer/</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>1979400</v>
+        <v>2129400</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/great+wall/poer_kingkong/</t>
+          <t>https://park-auto-sm.ru/avto-new/great+wall/gwm_poer/</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>277</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2979,63 +2979,63 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Wingle 7</t>
+          <t>POER King Kong</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>1679400</v>
+        <v>1979400</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/great+wall/wingle_7/</t>
+          <t>https://park-auto-sm.ru/avto-new/great+wall/poer_kingkong/</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>1679400</v>
+        <v>1979400</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/great+wall/wingle_7/</t>
+          <t>https://park-auto-sm.ru/avto-new/great+wall/poer_kingkong/</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>275</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Haval</t>
+          <t>Great Wall</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Dargo</t>
+          <t>Wingle 7</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>1687000</v>
+        <v>1679400</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/haval/dargo/</t>
+          <t>https://park-auto-sm.ru/avto-new/great+wall/wingle_7/</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>1687000</v>
+        <v>1679400</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/haval/dargo/</t>
+          <t>https://park-auto-sm.ru/avto-new/great+wall/wingle_7/</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -3045,30 +3045,30 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Dargo X</t>
+          <t>Dargo</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>2009400</v>
+        <v>1687000</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/haval/dargo_x/</t>
+          <t>https://park-auto-sm.ru/avto-new/haval/dargo/</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>2009400</v>
+        <v>1687000</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/haval/dargo_x/</t>
+          <t>https://park-auto-sm.ru/avto-new/haval/dargo/</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>287</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -3078,30 +3078,30 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>F7</t>
+          <t>Dargo X</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>1469400</v>
+        <v>2009400</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/haval/haval_f7/</t>
+          <t>https://park-auto-sm.ru/avto-new/haval/dargo_x/</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>1469400</v>
+        <v>2009400</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/haval/haval_f7/</t>
+          <t>https://park-auto-sm.ru/avto-new/haval/dargo_x/</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>304</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -3111,30 +3111,30 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>F7 New</t>
+          <t>F7</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>1619400</v>
+        <v>1469400</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/haval/haval_f7_%D0%BD%D0%BE%D0%B2%D1%8B%D0%B9/</t>
+          <t>https://park-auto-sm.ru/avto-new/haval/haval_f7/</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>1619400</v>
+        <v>1469400</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/haval/haval_f7_%D0%BD%D0%BE%D0%B2%D1%8B%D0%B9/</t>
+          <t>https://park-auto-sm.ru/avto-new/haval/haval_f7/</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>288</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -3144,30 +3144,30 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>F7x</t>
+          <t>F7 New</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>1469400</v>
+        <v>1619400</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/haval/haval_f7x/</t>
+          <t>https://park-auto-sm.ru/avto-new/haval/haval_f7_%D0%BD%D0%BE%D0%B2%D1%8B%D0%B9/</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>1469400</v>
+        <v>1619400</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/haval/haval_f7x/</t>
+          <t>https://park-auto-sm.ru/avto-new/haval/haval_f7_%D0%BD%D0%BE%D0%B2%D1%8B%D0%B9/</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>305</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -3177,30 +3177,30 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>H3</t>
+          <t>F7x</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1559400</v>
+        <v>1469400</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/haval/haval_h3/</t>
+          <t>https://park-auto-sm.ru/avto-new/haval/haval_f7x/</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>1559400</v>
+        <v>1469400</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/haval/haval_h3/</t>
+          <t>https://park-auto-sm.ru/avto-new/haval/haval_f7x/</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>296</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -3210,30 +3210,30 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>H5</t>
+          <t>H3</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>2219400</v>
+        <v>1559400</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/haval/haval_h5/</t>
+          <t>https://park-auto-sm.ru/avto-new/haval/haval_h3/</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>2219400</v>
+        <v>1559400</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/haval/haval_h5/</t>
+          <t>https://park-auto-sm.ru/avto-new/haval/haval_h3/</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -3243,30 +3243,30 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>H9</t>
+          <t>H5</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>2579400</v>
+        <v>2219400</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/haval/haval_h9/</t>
+          <t>https://park-auto-sm.ru/avto-new/haval/haval_h5/</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>2579400</v>
+        <v>2219400</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/haval/haval_h9/</t>
+          <t>https://park-auto-sm.ru/avto-new/haval/haval_h5/</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>300</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -3276,30 +3276,30 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Jolion</t>
+          <t>H9</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>886000</v>
+        <v>2579400</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/haval/jolion/</t>
+          <t>https://park-auto-sm.ru/avto-new/haval/haval_h9/</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>886000</v>
+        <v>2579400</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/haval/jolion/</t>
+          <t>https://park-auto-sm.ru/avto-new/haval/haval_h9/</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>301</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -3309,30 +3309,30 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Jolion New</t>
+          <t>Jolion</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>1199400</v>
+        <v>886000</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/haval/jolion_new/</t>
+          <t>https://park-auto-sm.ru/avto-new/haval/jolion/</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>1199400</v>
+        <v>886000</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/haval/jolion_new/</t>
+          <t>https://park-auto-sm.ru/avto-new/haval/jolion/</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>303</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -3342,63 +3342,63 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>M6</t>
+          <t>Jolion New</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>1307400</v>
+        <v>1199400</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/haval/haval_m6/</t>
+          <t>https://park-auto-sm.ru/avto-new/haval/jolion_new/</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>1307400</v>
+        <v>1199400</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/haval/haval_m6/</t>
+          <t>https://park-auto-sm.ru/avto-new/haval/jolion_new/</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>307</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>JAC</t>
+          <t>Haval</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>J7</t>
+          <t>M6</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>1290000</v>
+        <v>1307400</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/jac/j7/</t>
+          <t>https://park-auto-sm.ru/avto-new/haval/haval_m6/</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>1290000</v>
+        <v>1307400</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/jac/j7/</t>
+          <t>https://park-auto-sm.ru/avto-new/haval/haval_m6/</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>338</t>
+          <t>337</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -3408,30 +3408,30 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>JS3</t>
+          <t>J7</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>1049400</v>
+        <v>1290000</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/jac/JAC_JS3/</t>
+          <t>https://park-auto-sm.ru/avto-new/jac/j7/</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>1049400</v>
+        <v>1290000</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/jac/JAC_JS3/</t>
+          <t>https://park-auto-sm.ru/avto-new/jac/j7/</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>338</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -3441,30 +3441,30 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>JS4</t>
+          <t>JS3</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>1037400</v>
+        <v>1049400</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/jac/js4/</t>
+          <t>https://park-auto-sm.ru/avto-new/jac/JAC_JS3/</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>1037400</v>
+        <v>1049400</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/jac/js4/</t>
+          <t>https://park-auto-sm.ru/avto-new/jac/JAC_JS3/</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>339</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -3474,30 +3474,30 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>JS6</t>
+          <t>JS4</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>1685400</v>
+        <v>1037400</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/jac/js6/</t>
+          <t>https://park-auto-sm.ru/avto-new/jac/js4/</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>1685400</v>
+        <v>1037400</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/jac/js6/</t>
+          <t>https://park-auto-sm.ru/avto-new/jac/js4/</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>733</t>
+          <t>340</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -3507,30 +3507,30 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>S6</t>
+          <t>JS6</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>1559400</v>
+        <v>1685400</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/jac/s6/</t>
+          <t>https://park-auto-sm.ru/avto-new/jac/js6/</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>1559400</v>
+        <v>1685400</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/jac/s6/</t>
+          <t>https://park-auto-sm.ru/avto-new/jac/js6/</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>344</t>
+          <t>733</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -3540,30 +3540,30 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>T6</t>
+          <t>S6</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>955000</v>
+        <v>1559400</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/jac/t6/</t>
+          <t>https://park-auto-sm.ru/avto-new/jac/s6/</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>955000</v>
+        <v>1559400</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/jac/t6/</t>
+          <t>https://park-auto-sm.ru/avto-new/jac/s6/</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>681</t>
+          <t>344</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -3573,30 +3573,30 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>T8</t>
+          <t>T6</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>1709400</v>
+        <v>955000</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/jac/t8/</t>
+          <t>https://park-auto-sm.ru/avto-new/jac/t6/</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>1709400</v>
+        <v>955000</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/jac/t8/</t>
+          <t>https://park-auto-sm.ru/avto-new/jac/t6/</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>681</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -3606,30 +3606,30 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>T8 Pro</t>
+          <t>T8</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>1967400</v>
+        <v>1709400</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/jac/t8pro/</t>
+          <t>https://park-auto-sm.ru/avto-new/jac/t8/</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>1967400</v>
+        <v>1709400</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/jac/t8pro/</t>
+          <t>https://park-auto-sm.ru/avto-new/jac/t8/</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>682</t>
+          <t>345</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -3639,63 +3639,63 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>T9</t>
+          <t>T8 Pro</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>2099400</v>
+        <v>1967400</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/jac/t9/</t>
+          <t>https://park-auto-sm.ru/avto-new/jac/t8pro/</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>2099400</v>
+        <v>1967400</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/jac/t9/</t>
+          <t>https://park-auto-sm.ru/avto-new/jac/t8pro/</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>682</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>JAECOO</t>
+          <t>JAC</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>J7</t>
+          <t>T9</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>1709940</v>
+        <v>2099400</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/jaecoo/jaecoo_j7/</t>
+          <t>https://park-auto-sm.ru/avto-new/jac/t9/</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>1709940</v>
+        <v>2099400</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/jaecoo/jaecoo_j7/</t>
+          <t>https://park-auto-sm.ru/avto-new/jac/t9/</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>347</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -3705,63 +3705,63 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>J8</t>
+          <t>J7</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>2669400</v>
+        <v>1709940</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/jaecoo/jaecoo_j8/</t>
+          <t>https://park-auto-sm.ru/avto-new/jaecoo/jaecoo_j7/</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>2669400</v>
+        <v>1709940</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/jaecoo/jaecoo_j8/</t>
+          <t>https://park-auto-sm.ru/avto-new/jaecoo/jaecoo_j7/</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>348</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Jetour</t>
+          <t>JAECOO</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Dashing</t>
+          <t>J8</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>1493940</v>
+        <v>2669400</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/jetour/dashing/</t>
+          <t>https://park-auto-sm.ru/avto-new/jaecoo/jaecoo_j8/</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>1493940</v>
+        <v>2669400</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/jetour/dashing/</t>
+          <t>https://park-auto-sm.ru/avto-new/jaecoo/jaecoo_j8/</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>349</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -3771,30 +3771,30 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>Dashing</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>2375400</v>
+        <v>1493940</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/jetour/t2/</t>
+          <t>https://park-auto-sm.ru/avto-new/jetour/dashing/</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>2375400</v>
+        <v>1493940</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/jetour/t2/</t>
+          <t>https://park-auto-sm.ru/avto-new/jetour/dashing/</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>758</t>
+          <t>351</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -3804,30 +3804,30 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>X50</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>1194000</v>
+        <v>2375400</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/jetour/X_50/</t>
+          <t>https://park-auto-sm.ru/avto-new/jetour/t2/</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>1194000</v>
+        <v>2375400</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/jetour/X_50/</t>
+          <t>https://park-auto-sm.ru/avto-new/jetour/t2/</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>758</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -3837,30 +3837,30 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>X70</t>
+          <t>X50</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>1589400</v>
+        <v>1194000</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/jetour/x_70/</t>
+          <t>https://park-auto-sm.ru/avto-new/jetour/X_50/</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>1589400</v>
+        <v>1194000</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/jetour/x_70/</t>
+          <t>https://park-auto-sm.ru/avto-new/jetour/X_50/</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>352</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -3870,30 +3870,30 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>X70 Plus</t>
+          <t>X70</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>1799940</v>
+        <v>1589400</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/jetour/X70Plus/</t>
+          <t>https://park-auto-sm.ru/avto-new/jetour/x_70/</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>1799940</v>
+        <v>1589400</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/jetour/X70Plus/</t>
+          <t>https://park-auto-sm.ru/avto-new/jetour/x_70/</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>353</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -3903,63 +3903,63 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>X90 Plus</t>
+          <t>X70 Plus</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>1949940</v>
+        <v>1799940</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/jetour/x90plus/</t>
+          <t>https://park-auto-sm.ru/avto-new/jetour/X70Plus/</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>1949940</v>
+        <v>1799940</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/jetour/x90plus/</t>
+          <t>https://park-auto-sm.ru/avto-new/jetour/X70Plus/</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>354</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>Jetour</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>VA3</t>
+          <t>X90 Plus</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>1156800</v>
+        <v>1949940</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/jetta/va3/</t>
+          <t>https://park-auto-sm.ru/avto-new/jetour/x90plus/</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>1156800</v>
+        <v>1949940</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/jetta/va3/</t>
+          <t>https://park-auto-sm.ru/avto-new/jetour/x90plus/</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>355</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -3969,30 +3969,30 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>VS5</t>
+          <t>VA3</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>1800000</v>
+        <v>1156800</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/jetta/vs5/</t>
+          <t>https://park-auto-sm.ru/avto-new/jetta/va3/</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>1800000</v>
+        <v>1156800</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/jetta/vs5/</t>
+          <t>https://park-auto-sm.ru/avto-new/jetta/va3/</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>356</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -4002,63 +4002,63 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>VS7</t>
+          <t>VS5</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>2020200</v>
+        <v>1800000</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/jetta/vs7/</t>
+          <t>https://park-auto-sm.ru/avto-new/jetta/vs5/</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>2020200</v>
+        <v>1800000</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/jetta/vs7/</t>
+          <t>https://park-auto-sm.ru/avto-new/jetta/vs5/</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>357</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>KAIYI</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>E5</t>
+          <t>VS7</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>1269000</v>
+        <v>2020200</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/kaiyi/e5/</t>
+          <t>https://park-auto-sm.ru/avto-new/jetta/vs7/</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>1269000</v>
+        <v>2020200</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/kaiyi/e5/</t>
+          <t>https://park-auto-sm.ru/avto-new/jetta/vs7/</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>358</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -4068,30 +4068,30 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>X3</t>
+          <t>E5</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>1342800</v>
+        <v>1269000</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/kaiyi/kaiyi_x3/</t>
+          <t>https://park-auto-sm.ru/avto-new/kaiyi/e5/</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>1342800</v>
+        <v>1269000</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/kaiyi/kaiyi_x3/</t>
+          <t>https://park-auto-sm.ru/avto-new/kaiyi/e5/</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>359</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -4101,30 +4101,30 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>X3 Pro</t>
+          <t>X3</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>1508940</v>
+        <v>1342800</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/kaiyi/kaiyi_x3_pro/</t>
+          <t>https://park-auto-sm.ru/avto-new/kaiyi/kaiyi_x3/</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>1508940</v>
+        <v>1342800</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/kaiyi/kaiyi_x3_pro/</t>
+          <t>https://park-auto-sm.ru/avto-new/kaiyi/kaiyi_x3/</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>361</t>
+          <t>360</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -4134,63 +4134,63 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>X7 Kunlun</t>
+          <t>X3 Pro</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>1798740</v>
+        <v>1508940</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/kaiyi/kaiyi_x7_kunlun/</t>
+          <t>https://park-auto-sm.ru/avto-new/kaiyi/kaiyi_x3_pro/</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>1798740</v>
+        <v>1508940</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/kaiyi/kaiyi_x7_kunlun/</t>
+          <t>https://park-auto-sm.ru/avto-new/kaiyi/kaiyi_x3_pro/</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>401</t>
+          <t>361</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>KAIYI</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>4x4 Bronto</t>
+          <t>X7 Kunlun</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>892200</v>
+        <v>1798740</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lada/4_x_4_bronto/</t>
+          <t>https://park-auto-sm.ru/avto-new/kaiyi/kaiyi_x7_kunlun/</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>892200</v>
+        <v>1798740</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lada/4_x_4_bronto/</t>
+          <t>https://park-auto-sm.ru/avto-new/kaiyi/kaiyi_x7_kunlun/</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>795</t>
+          <t>401</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -4200,30 +4200,30 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Aura</t>
+          <t>4x4 Bronto</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>1559400</v>
+        <v>892200</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lada/aura/</t>
+          <t>https://park-auto-sm.ru/avto-new/lada/4_x_4_bronto/</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>1559400</v>
+        <v>892200</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lada/aura/</t>
+          <t>https://park-auto-sm.ru/avto-new/lada/4_x_4_bronto/</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>795</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -4233,30 +4233,30 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Granta Cross</t>
+          <t>Aura</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>705000</v>
+        <v>1559400</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lada/lada_granta_cross/</t>
+          <t>https://park-auto-sm.ru/avto-new/lada/aura/</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>705000</v>
+        <v>1559400</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lada/lada_granta_cross/</t>
+          <t>https://park-auto-sm.ru/avto-new/lada/aura/</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>408</t>
+          <t>402</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -4266,30 +4266,30 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Granta Drive Active Liftback</t>
+          <t>Granta Cross</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>638940</v>
+        <v>705000</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lada/lada_granta_sport_drive_active_liftback/</t>
+          <t>https://park-auto-sm.ru/avto-new/lada/lada_granta_cross/</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>638940</v>
+        <v>705000</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lada/lada_granta_sport_drive_active_liftback/</t>
+          <t>https://park-auto-sm.ru/avto-new/lada/lada_granta_cross/</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>408</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -4299,30 +4299,30 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Granta Hatchback</t>
+          <t>Granta Drive Active Liftback</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>467100</v>
+        <v>638940</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lada/granta_hatchback_new/</t>
+          <t>https://park-auto-sm.ru/avto-new/lada/lada_granta_sport_drive_active_liftback/</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>467100</v>
+        <v>638940</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lada/granta_hatchback_new/</t>
+          <t>https://park-auto-sm.ru/avto-new/lada/lada_granta_sport_drive_active_liftback/</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>405</t>
+          <t>404</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -4332,30 +4332,30 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Granta Liftback</t>
+          <t>Granta Hatchback</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>646200</v>
+        <v>467100</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lada/granta_liftback_new/</t>
+          <t>https://park-auto-sm.ru/avto-new/lada/granta_hatchback_new/</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>646200</v>
+        <v>467100</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lada/granta_liftback_new/</t>
+          <t>https://park-auto-sm.ru/avto-new/lada/granta_hatchback_new/</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>405</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -4365,30 +4365,30 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Granta Sedan</t>
+          <t>Granta Liftback</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>449940</v>
+        <v>646200</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lada/granta_sedan_new/</t>
+          <t>https://park-auto-sm.ru/avto-new/lada/granta_liftback_new/</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>449940</v>
+        <v>646200</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lada/granta_sedan_new/</t>
+          <t>https://park-auto-sm.ru/avto-new/lada/granta_liftback_new/</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>403</t>
+          <t>406</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -4398,30 +4398,30 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Granta Sedan Drive Active</t>
+          <t>Granta Sedan</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>620940</v>
+        <v>449940</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lada/granta_drive_active/</t>
+          <t>https://park-auto-sm.ru/avto-new/lada/granta_sedan_new/</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>620940</v>
+        <v>449940</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lada/granta_drive_active/</t>
+          <t>https://park-auto-sm.ru/avto-new/lada/granta_sedan_new/</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>409</t>
+          <t>403</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -4431,30 +4431,30 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Granta Sport Liftback</t>
+          <t>Granta Sedan Drive Active</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>919800</v>
+        <v>620940</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lada/granta_sport_liftback/</t>
+          <t>https://park-auto-sm.ru/avto-new/lada/granta_drive_active/</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>919800</v>
+        <v>620940</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lada/granta_sport_liftback/</t>
+          <t>https://park-auto-sm.ru/avto-new/lada/granta_drive_active/</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>411</t>
+          <t>409</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -4464,30 +4464,30 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Granta Sport Sedan</t>
+          <t>Granta Sport Liftback</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>895800</v>
+        <v>919800</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lada/granta_sport_sedan/</t>
+          <t>https://park-auto-sm.ru/avto-new/lada/granta_sport_liftback/</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>895800</v>
+        <v>919800</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lada/granta_sport_sedan/</t>
+          <t>https://park-auto-sm.ru/avto-new/lada/granta_sport_liftback/</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>723</t>
+          <t>411</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -4497,30 +4497,30 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Granta Sportline</t>
+          <t>Granta Sport Sedan</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>804600</v>
+        <v>895800</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lada/granta_sportline/</t>
+          <t>https://park-auto-sm.ru/avto-new/lada/granta_sport_sedan/</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>804600</v>
+        <v>895800</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lada/granta_sportline/</t>
+          <t>https://park-auto-sm.ru/avto-new/lada/granta_sport_sedan/</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>732</t>
+          <t>723</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -4530,30 +4530,30 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Granta Sportline Liftback</t>
+          <t>Granta Sportline</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>828600</v>
+        <v>804600</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lada/granta_sportline_%D0%BB%D0%B8%D1%84%D1%82%D0%B1%D1%8D%D0%BA/</t>
+          <t>https://park-auto-sm.ru/avto-new/lada/granta_sportline/</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>828600</v>
+        <v>804600</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lada/granta_sportline_%D0%BB%D0%B8%D1%84%D1%82%D0%B1%D1%8D%D0%BA/</t>
+          <t>https://park-auto-sm.ru/avto-new/lada/granta_sportline/</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>414</t>
+          <t>732</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -4563,30 +4563,30 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Granta Universal</t>
+          <t>Granta Sportline Liftback</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>431580</v>
+        <v>828600</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lada/granta_uni_new/</t>
+          <t>https://park-auto-sm.ru/avto-new/lada/granta_sportline_%D0%BB%D0%B8%D1%84%D1%82%D0%B1%D1%8D%D0%BA/</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>431580</v>
+        <v>828600</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lada/granta_uni_new/</t>
+          <t>https://park-auto-sm.ru/avto-new/lada/granta_sportline_%D0%BB%D0%B8%D1%84%D1%82%D0%B1%D1%8D%D0%BA/</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>418</t>
+          <t>414</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -4596,30 +4596,30 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Largus</t>
+          <t>Granta Universal</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>766500</v>
+        <v>431580</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lada/largus-5-mest/</t>
+          <t>https://park-auto-sm.ru/avto-new/lada/granta_uni_new/</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>766500</v>
+        <v>431580</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lada/largus-5-mest/</t>
+          <t>https://park-auto-sm.ru/avto-new/lada/granta_uni_new/</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>419</t>
+          <t>418</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -4629,30 +4629,30 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Largus Cross</t>
+          <t>Largus</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>1212000</v>
+        <v>766500</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lada/largus_cross_5/</t>
+          <t>https://park-auto-sm.ru/avto-new/lada/largus-5-mest/</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>1212000</v>
+        <v>766500</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lada/largus_cross_5/</t>
+          <t>https://park-auto-sm.ru/avto-new/lada/largus-5-mest/</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>422</t>
+          <t>419</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -4662,30 +4662,30 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Niva</t>
+          <t>Largus Cross</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>575640</v>
+        <v>1212000</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lada/ladaniva/</t>
+          <t>https://park-auto-sm.ru/avto-new/lada/largus_cross_5/</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>575640</v>
+        <v>1212000</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lada/ladaniva/</t>
+          <t>https://park-auto-sm.ru/avto-new/lada/largus_cross_5/</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>422</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -4695,30 +4695,30 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Niva Legend 3 двери</t>
+          <t>Niva</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>635400</v>
+        <v>575640</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lada/4x4_3dr/</t>
+          <t>https://park-auto-sm.ru/avto-new/lada/ladaniva/</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>635400</v>
+        <v>575640</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lada/4x4_3dr/</t>
+          <t>https://park-auto-sm.ru/avto-new/lada/ladaniva/</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>423</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -4728,30 +4728,30 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Niva Legend 5 дверей</t>
+          <t>Niva Legend 3 двери</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>551340</v>
+        <v>635400</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lada/4x4_5dr/</t>
+          <t>https://park-auto-sm.ru/avto-new/lada/4x4_3dr/</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>551340</v>
+        <v>635400</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lada/4x4_5dr/</t>
+          <t>https://park-auto-sm.ru/avto-new/lada/4x4_3dr/</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>424</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -4761,30 +4761,30 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Niva Travel</t>
+          <t>Niva Legend 5 дверей</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>479900</v>
+        <v>551340</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lada/niva-travel/</t>
+          <t>https://park-auto-sm.ru/avto-new/lada/4x4_5dr/</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>479900</v>
+        <v>551340</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lada/niva-travel/</t>
+          <t>https://park-auto-sm.ru/avto-new/lada/4x4_5dr/</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>427</t>
+          <t>434</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -4794,30 +4794,30 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Niva Urban 3 двери</t>
+          <t>Niva Travel</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>517860</v>
+        <v>479900</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lada/urban_3d/</t>
+          <t>https://park-auto-sm.ru/avto-new/lada/niva-travel/</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>517860</v>
+        <v>479900</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lada/urban_3d/</t>
+          <t>https://park-auto-sm.ru/avto-new/lada/niva-travel/</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>430</t>
+          <t>427</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -4827,30 +4827,30 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Niva Urban 5 дверей</t>
+          <t>Niva Urban 3 двери</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>551400</v>
+        <v>517860</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lada/urban_5d/</t>
+          <t>https://park-auto-sm.ru/avto-new/lada/urban_3d/</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>551400</v>
+        <v>517860</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lada/urban_5d/</t>
+          <t>https://park-auto-sm.ru/avto-new/lada/urban_3d/</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>437</t>
+          <t>430</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -4860,30 +4860,30 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Vesta Cross</t>
+          <t>Niva Urban 5 дверей</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>1055400</v>
+        <v>551400</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lada/vesta_cross/</t>
+          <t>https://park-auto-sm.ru/avto-new/lada/urban_5d/</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>1055400</v>
+        <v>551400</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lada/vesta_cross/</t>
+          <t>https://park-auto-sm.ru/avto-new/lada/urban_5d/</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>437</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -4893,30 +4893,30 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Vesta SW</t>
+          <t>Vesta Cross</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>993000</v>
+        <v>1055400</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lada/vesta_sw/</t>
+          <t>https://park-auto-sm.ru/avto-new/lada/vesta_cross/</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>993000</v>
+        <v>1055400</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lada/vesta_sw/</t>
+          <t>https://park-auto-sm.ru/avto-new/lada/vesta_cross/</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>443</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -4926,30 +4926,30 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Vesta SW Cross</t>
+          <t>Vesta SW</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>1127400</v>
+        <v>993000</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lada/vesta_sw_cross/</t>
+          <t>https://park-auto-sm.ru/avto-new/lada/vesta_sw/</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>1127400</v>
+        <v>993000</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lada/vesta_sw_cross/</t>
+          <t>https://park-auto-sm.ru/avto-new/lada/vesta_sw/</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>703</t>
+          <t>445</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -4959,30 +4959,30 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Vesta SW Sportline New</t>
+          <t>Vesta SW Cross</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>1465800</v>
+        <v>1127400</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lada/vesta_sw_sportline/</t>
+          <t>https://park-auto-sm.ru/avto-new/lada/vesta_sw_cross/</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>1465800</v>
+        <v>1127400</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lada/vesta_sw_sportline/</t>
+          <t>https://park-auto-sm.ru/avto-new/lada/vesta_sw_cross/</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>703</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -4992,30 +4992,30 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Vesta Sedan</t>
+          <t>Vesta SW Sportline New</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>743940</v>
+        <v>1465800</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lada/vesta/</t>
+          <t>https://park-auto-sm.ru/avto-new/lada/vesta_sw_sportline/</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>743940</v>
+        <v>1465800</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lada/vesta/</t>
+          <t>https://park-auto-sm.ru/avto-new/lada/vesta_sw_sportline/</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>436</t>
+          <t>435</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -5025,30 +5025,30 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Vesta Sedan CNG</t>
+          <t>Vesta Sedan</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>790140</v>
+        <v>743940</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lada/vesta_cng/</t>
+          <t>https://park-auto-sm.ru/avto-new/lada/vesta/</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>790140</v>
+        <v>743940</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lada/vesta_cng/</t>
+          <t>https://park-auto-sm.ru/avto-new/lada/vesta/</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>442</t>
+          <t>436</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -5058,30 +5058,30 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Vesta Sportline</t>
+          <t>Vesta Sedan CNG</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>1363800</v>
+        <v>790140</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lada/Vesta_Sportline/</t>
+          <t>https://park-auto-sm.ru/avto-new/lada/vesta_cng/</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>1363800</v>
+        <v>790140</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lada/Vesta_Sportline/</t>
+          <t>https://park-auto-sm.ru/avto-new/lada/vesta_cng/</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>442</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -5091,30 +5091,30 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Xray</t>
+          <t>Vesta Sportline</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>664140</v>
+        <v>1363800</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lada/xray/</t>
+          <t>https://park-auto-sm.ru/avto-new/lada/Vesta_Sportline/</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>664140</v>
+        <v>1363800</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lada/xray/</t>
+          <t>https://park-auto-sm.ru/avto-new/lada/Vesta_Sportline/</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>448</t>
+          <t>447</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -5124,63 +5124,63 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Xray Cross</t>
+          <t>Xray</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>749940</v>
+        <v>664140</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lada/xray_cross/</t>
+          <t>https://park-auto-sm.ru/avto-new/lada/xray/</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>749940</v>
+        <v>664140</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lada/xray_cross/</t>
+          <t>https://park-auto-sm.ru/avto-new/lada/xray/</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>448</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Lifan</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Murman</t>
+          <t>Xray Cross</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>795540</v>
+        <v>749940</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lifan/murman/</t>
+          <t>https://park-auto-sm.ru/avto-new/lada/xray_cross/</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>795540</v>
+        <v>749940</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lifan/murman/</t>
+          <t>https://park-auto-sm.ru/avto-new/lada/xray_cross/</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>457</t>
+          <t>455</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -5190,30 +5190,30 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>MyWay</t>
+          <t>Murman</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>701940</v>
+        <v>795540</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lifan/myway/</t>
+          <t>https://park-auto-sm.ru/avto-new/lifan/murman/</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>701940</v>
+        <v>795540</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lifan/myway/</t>
+          <t>https://park-auto-sm.ru/avto-new/lifan/murman/</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>459</t>
+          <t>457</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -5223,30 +5223,30 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Solano 2</t>
+          <t>MyWay</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>425940</v>
+        <v>701940</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lifan/solano2/</t>
+          <t>https://park-auto-sm.ru/avto-new/lifan/myway/</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>425940</v>
+        <v>701940</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lifan/solano2/</t>
+          <t>https://park-auto-sm.ru/avto-new/lifan/myway/</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>460</t>
+          <t>459</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -5256,30 +5256,30 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>X50</t>
+          <t>Solano 2</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>538140</v>
+        <v>425940</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lifan/x50/</t>
+          <t>https://park-auto-sm.ru/avto-new/lifan/solano2/</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>538140</v>
+        <v>425940</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lifan/x50/</t>
+          <t>https://park-auto-sm.ru/avto-new/lifan/solano2/</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>461</t>
+          <t>460</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -5289,30 +5289,30 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>X60</t>
+          <t>X50</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>600540</v>
+        <v>538140</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lifan/x60/</t>
+          <t>https://park-auto-sm.ru/avto-new/lifan/x50/</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>600540</v>
+        <v>538140</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lifan/x60/</t>
+          <t>https://park-auto-sm.ru/avto-new/lifan/x50/</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>463</t>
+          <t>461</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -5322,63 +5322,63 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>X70</t>
+          <t>X60</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>771420</v>
+        <v>600540</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lifan/x70/</t>
+          <t>https://park-auto-sm.ru/avto-new/lifan/x60/</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>771420</v>
+        <v>600540</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/lifan/x70/</t>
+          <t>https://park-auto-sm.ru/avto-new/lifan/x60/</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>464</t>
+          <t>463</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Livan</t>
+          <t>Lifan</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>S6 Pro</t>
+          <t>X70</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>1529940</v>
+        <v>771420</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/livan/S6PRO/</t>
+          <t>https://park-auto-sm.ru/avto-new/lifan/x70/</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>1529940</v>
+        <v>771420</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/livan/S6PRO/</t>
+          <t>https://park-auto-sm.ru/avto-new/lifan/x70/</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>465</t>
+          <t>464</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -5388,30 +5388,30 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>X3 Pro</t>
+          <t>S6 Pro</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>1003200</v>
+        <v>1529940</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/livan/x3pro/</t>
+          <t>https://park-auto-sm.ru/avto-new/livan/S6PRO/</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>1003200</v>
+        <v>1529940</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/livan/x3pro/</t>
+          <t>https://park-auto-sm.ru/avto-new/livan/S6PRO/</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>466</t>
+          <t>465</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -5421,63 +5421,63 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>X6 Pro</t>
+          <t>X3 Pro</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>1577940</v>
+        <v>1003200</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/livan/%D0%A56PRO/</t>
+          <t>https://park-auto-sm.ru/avto-new/livan/x3pro/</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>1577940</v>
+        <v>1003200</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/livan/%D0%A56PRO/</t>
+          <t>https://park-auto-sm.ru/avto-new/livan/x3pro/</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>492</t>
+          <t>466</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>Livan</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>X6 Pro</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>1409400</v>
+        <v>1577940</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/mg/mg_5/</t>
+          <t>https://park-auto-sm.ru/avto-new/livan/%D0%A56PRO/</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>1409400</v>
+        <v>1577940</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/mg/mg_5/</t>
+          <t>https://park-auto-sm.ru/avto-new/livan/%D0%A56PRO/</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>493</t>
+          <t>492</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -5487,30 +5487,30 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>1739400</v>
+        <v>1409400</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/mg/mg_6/</t>
+          <t>https://park-auto-sm.ru/avto-new/mg/mg_5/</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>1739400</v>
+        <v>1409400</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/mg/mg_6/</t>
+          <t>https://park-auto-sm.ru/avto-new/mg/mg_5/</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>489</t>
+          <t>493</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -5520,30 +5520,30 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>2382600</v>
+        <v>1739400</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/mg/7/</t>
+          <t>https://park-auto-sm.ru/avto-new/mg/mg_6/</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>2382600</v>
+        <v>1739400</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/mg/7/</t>
+          <t>https://park-auto-sm.ru/avto-new/mg/mg_6/</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>494</t>
+          <t>489</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -5553,30 +5553,30 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>HS</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>2130000</v>
+        <v>2382600</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/mg/HS/</t>
+          <t>https://park-auto-sm.ru/avto-new/mg/7/</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>2130000</v>
+        <v>2382600</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/mg/HS/</t>
+          <t>https://park-auto-sm.ru/avto-new/mg/7/</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>834</t>
+          <t>494</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -5586,30 +5586,30 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>RX 5</t>
+          <t>HS</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>1713000</v>
+        <v>2130000</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/mg/RX5/</t>
+          <t>https://park-auto-sm.ru/avto-new/mg/HS/</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>1713000</v>
+        <v>2130000</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/mg/RX5/</t>
+          <t>https://park-auto-sm.ru/avto-new/mg/HS/</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>842</t>
+          <t>834</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -5619,30 +5619,30 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>RX 8</t>
+          <t>RX 5</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>2544000</v>
+        <v>1713000</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/mg/RX8/</t>
+          <t>https://park-auto-sm.ru/avto-new/mg/RX5/</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>2544000</v>
+        <v>1713000</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/mg/RX8/</t>
+          <t>https://park-auto-sm.ru/avto-new/mg/RX5/</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>841</t>
+          <t>842</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -5652,30 +5652,30 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>RX 9</t>
+          <t>RX 8</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>2970000</v>
+        <v>2544000</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/mg/RX9/</t>
+          <t>https://park-auto-sm.ru/avto-new/mg/RX8/</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>2970000</v>
+        <v>2544000</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/mg/RX9/</t>
+          <t>https://park-auto-sm.ru/avto-new/mg/RX8/</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>495</t>
+          <t>841</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -5685,63 +5685,63 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>ZS</t>
+          <t>RX 9</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>1470000</v>
+        <v>2970000</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/mg/mg_zs/</t>
+          <t>https://park-auto-sm.ru/avto-new/mg/RX9/</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>1470000</v>
+        <v>2970000</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/mg/mg_zs/</t>
+          <t>https://park-auto-sm.ru/avto-new/mg/RX9/</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>495</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Moskvich</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>ZS</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>954000</v>
+        <v>1470000</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/moskvich/moskvich_3/</t>
+          <t>https://park-auto-sm.ru/avto-new/mg/mg_zs/</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>954000</v>
+        <v>1470000</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/moskvich/moskvich_3/</t>
+          <t>https://park-auto-sm.ru/avto-new/mg/mg_zs/</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>510</t>
+          <t>509</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -5751,30 +5751,30 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>3e</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>2370000</v>
+        <v>954000</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/moskvich/moskvich_3e/</t>
+          <t>https://park-auto-sm.ru/avto-new/moskvich/moskvich_3/</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>2370000</v>
+        <v>954000</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/moskvich/moskvich_3e/</t>
+          <t>https://park-auto-sm.ru/avto-new/moskvich/moskvich_3/</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>510</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -5784,63 +5784,63 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3e</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>1320000</v>
+        <v>2370000</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/moskvich/moskvich_6/</t>
+          <t>https://park-auto-sm.ru/avto-new/moskvich/moskvich_3e/</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>1320000</v>
+        <v>2370000</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/moskvich/moskvich_6/</t>
+          <t>https://park-auto-sm.ru/avto-new/moskvich/moskvich_3e/</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>511</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>OMODA</t>
+          <t>Moskvich</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>C5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>1421940</v>
+        <v>1320000</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/omoda/omoda_c5/</t>
+          <t>https://park-auto-sm.ru/avto-new/moskvich/moskvich_6/</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>1421940</v>
+        <v>1320000</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/omoda/omoda_c5/</t>
+          <t>https://park-auto-sm.ru/avto-new/moskvich/moskvich_6/</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>820</t>
+          <t>525</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -5850,30 +5850,30 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>C5 New</t>
+          <t>C5</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>1541940</v>
+        <v>1421940</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/omoda/omoda_c5_new/</t>
+          <t>https://park-auto-sm.ru/avto-new/omoda/omoda_c5/</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>1541940</v>
+        <v>1421940</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/omoda/omoda_c5_new/</t>
+          <t>https://park-auto-sm.ru/avto-new/omoda/omoda_c5/</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>820</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -5883,30 +5883,30 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>S5</t>
+          <t>C5 New</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>1295940</v>
+        <v>1541940</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/omoda/omoda_s5/</t>
+          <t>https://park-auto-sm.ru/avto-new/omoda/omoda_c5_new/</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>1295940</v>
+        <v>1541940</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/omoda/omoda_s5/</t>
+          <t>https://park-auto-sm.ru/avto-new/omoda/omoda_c5_new/</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>527</t>
+          <t>526</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -5916,63 +5916,63 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>S5 GT</t>
+          <t>S5</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>1703940</v>
+        <v>1295940</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/omoda/S5_GT/</t>
+          <t>https://park-auto-sm.ru/avto-new/omoda/omoda_s5/</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>1703940</v>
+        <v>1295940</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/omoda/S5_GT/</t>
+          <t>https://park-auto-sm.ru/avto-new/omoda/omoda_s5/</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>594</t>
+          <t>527</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>OMODA</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>S5 GT</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>1530000</v>
+        <v>1703940</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/solaris/solaris_hc/</t>
+          <t>https://park-auto-sm.ru/avto-new/omoda/S5_GT/</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>1530000</v>
+        <v>1703940</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/solaris/solaris_hc/</t>
+          <t>https://park-auto-sm.ru/avto-new/omoda/S5_GT/</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>595</t>
+          <t>594</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -5982,30 +5982,30 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>HS</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="D169" t="n">
-        <v>1260000</v>
+        <v>1530000</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/solaris/solaris_hs/</t>
+          <t>https://park-auto-sm.ru/avto-new/solaris/solaris_hc/</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>1260000</v>
+        <v>1530000</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/solaris/solaris_hs/</t>
+          <t>https://park-auto-sm.ru/avto-new/solaris/solaris_hc/</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>596</t>
+          <t>595</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -6015,30 +6015,30 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>KRS</t>
+          <t>HS</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>1222800</v>
+        <v>1260000</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/solaris/krs/</t>
+          <t>https://park-auto-sm.ru/avto-new/solaris/solaris_hs/</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>1222800</v>
+        <v>1260000</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/solaris/krs/</t>
+          <t>https://park-auto-sm.ru/avto-new/solaris/solaris_hs/</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>597</t>
+          <t>596</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -6048,63 +6048,63 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>KRX</t>
+          <t>KRS</t>
         </is>
       </c>
       <c r="D171" t="n">
-        <v>1256400</v>
+        <v>1222800</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/solaris/krx/</t>
+          <t>https://park-auto-sm.ru/avto-new/solaris/krs/</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>1256400</v>
+        <v>1222800</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/solaris/krx/</t>
+          <t>https://park-auto-sm.ru/avto-new/solaris/krs/</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>597</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>TANK</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>KRX</t>
         </is>
       </c>
       <c r="D172" t="n">
-        <v>2549400</v>
+        <v>1256400</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/tank/tank_300/</t>
+          <t>https://park-auto-sm.ru/avto-new/solaris/krx/</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>2549400</v>
+        <v>1256400</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/tank/tank_300/</t>
+          <t>https://park-auto-sm.ru/avto-new/solaris/krx/</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>770</t>
+          <t>614</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -6114,63 +6114,63 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>700</t>
+          <t>300</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>5339400</v>
+        <v>2549400</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/tank/tank_700/</t>
+          <t>https://park-auto-sm.ru/avto-new/tank/tank_300/</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>5339400</v>
+        <v>2549400</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/tank/tank_700/</t>
+          <t>https://park-auto-sm.ru/avto-new/tank/tank_300/</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>633</t>
+          <t>770</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>UAZ</t>
+          <t>TANK</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Hunter</t>
+          <t>700</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>837000</v>
+        <v>5339400</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/uaz/hunter/</t>
+          <t>https://park-auto-sm.ru/avto-new/tank/tank_700/</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>837000</v>
+        <v>5339400</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/uaz/hunter/</t>
+          <t>https://park-auto-sm.ru/avto-new/tank/tank_700/</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>634</t>
+          <t>633</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -6180,30 +6180,30 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Patriot</t>
+          <t>Hunter</t>
         </is>
       </c>
       <c r="D175" t="n">
-        <v>927000</v>
+        <v>837000</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/uaz/patriot_new/</t>
+          <t>https://park-auto-sm.ru/avto-new/uaz/hunter/</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>927000</v>
+        <v>837000</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/uaz/patriot_new/</t>
+          <t>https://park-auto-sm.ru/avto-new/uaz/hunter/</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>734</t>
+          <t>634</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -6213,30 +6213,30 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Patriot АКПП</t>
+          <t>Patriot</t>
         </is>
       </c>
       <c r="D176" t="n">
-        <v>1161000</v>
+        <v>927000</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/uaz/patrion_at/</t>
+          <t>https://park-auto-sm.ru/avto-new/uaz/patriot_new/</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>1161000</v>
+        <v>927000</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/uaz/patrion_at/</t>
+          <t>https://park-auto-sm.ru/avto-new/uaz/patriot_new/</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>637</t>
+          <t>734</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -6246,54 +6246,87 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Pickup</t>
+          <t>Patriot АКПП</t>
         </is>
       </c>
       <c r="D177" t="n">
-        <v>942000</v>
+        <v>1161000</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/uaz/pickup_new/</t>
+          <t>https://park-auto-sm.ru/avto-new/uaz/patrion_at/</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>942000</v>
+        <v>1161000</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/uaz/pickup_new/</t>
+          <t>https://park-auto-sm.ru/avto-new/uaz/patrion_at/</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
+          <t>637</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>UAZ</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Pickup</t>
+        </is>
+      </c>
+      <c r="D178" t="n">
+        <v>942000</v>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>https://park-auto-sm.ru/avto-new/uaz/pickup_new/</t>
+        </is>
+      </c>
+      <c r="F178" t="n">
+        <v>942000</v>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>https://park-auto-sm.ru/avto-new/uaz/pickup_new/</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
           <t>828</t>
         </is>
       </c>
-      <c r="B178" t="inlineStr">
+      <c r="B179" t="inlineStr">
         <is>
           <t>UAZ</t>
         </is>
       </c>
-      <c r="C178" t="inlineStr">
+      <c r="C179" t="inlineStr">
         <is>
           <t>Pickup АКПП</t>
         </is>
       </c>
-      <c r="D178" t="n">
+      <c r="D179" t="n">
         <v>1215000</v>
       </c>
-      <c r="E178" t="inlineStr">
+      <c r="E179" t="inlineStr">
         <is>
           <t>https://park-auto-sm.ru/avto-new/uaz/UAZ_Pickup_akpp/</t>
         </is>
       </c>
-      <c r="F178" t="n">
+      <c r="F179" t="n">
         <v>1215000</v>
       </c>
-      <c r="G178" t="inlineStr">
+      <c r="G179" t="inlineStr">
         <is>
           <t>https://park-auto-sm.ru/avto-new/uaz/UAZ_Pickup_akpp/</t>
         </is>

--- a/xlsx/samara.xlsx
+++ b/xlsx/samara.xlsx
@@ -3049,7 +3049,7 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>1687000</v>
+        <v>1787000</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -3057,7 +3057,7 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>1687000</v>
+        <v>1787000</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -3082,7 +3082,7 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>2009400</v>
+        <v>2069400</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>2009400</v>
+        <v>2069400</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>1619400</v>
+        <v>1709400</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -3156,7 +3156,7 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>1619400</v>
+        <v>1709400</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -3214,7 +3214,7 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>1559400</v>
+        <v>1679400</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -3222,7 +3222,7 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>1559400</v>
+        <v>1679400</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -3247,7 +3247,7 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>2219400</v>
+        <v>2339400</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -3255,7 +3255,7 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>2219400</v>
+        <v>2339400</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>2579400</v>
+        <v>2759400</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -3288,7 +3288,7 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>2579400</v>
+        <v>2759400</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>1199400</v>
+        <v>1289400</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -3354,7 +3354,7 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>1199400</v>
+        <v>1289400</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>

--- a/xlsx/samara.xlsx
+++ b/xlsx/samara.xlsx
@@ -4992,7 +4992,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Vesta SW Sportline New</t>
+          <t>Vesta SW Sportline</t>
         </is>
       </c>
       <c r="D139" t="n">

--- a/xlsx/samara.xlsx
+++ b/xlsx/samara.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K295"/>
+  <dimension ref="A1:K296"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10497,56 +10497,40 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>594</t>
+          <t>586</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>Superb Combi</t>
         </is>
       </c>
       <c r="D274" t="n">
-        <v>1530000</v>
+        <v>1608600</v>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/solaris/solaris_hc/</t>
+          <t>https://park-auto-sm.ru/avto-new/skoda/superb_combi/</t>
         </is>
       </c>
       <c r="F274" t="n">
-        <v>1530000</v>
+        <v>1608600</v>
       </c>
       <c r="G274" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/solaris/solaris_hc/</t>
-        </is>
-      </c>
-      <c r="H274" t="n">
-        <v>1749000</v>
-      </c>
-      <c r="I274" t="inlineStr">
-        <is>
-          <t>https://ac-triumph.ru/cars-new/solaris/hc/2022-allroad-5/</t>
-        </is>
-      </c>
-      <c r="J274" t="n">
-        <v>1754000</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>https://ace-auto-63.ru/car/solaris-hc/</t>
+          <t>https://park-auto-sm.ru/avto-new/skoda/superb_combi/</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>595</t>
+          <t>594</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
@@ -10556,46 +10540,46 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>HS</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="D275" t="n">
-        <v>1250000</v>
+        <v>1530000</v>
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>https://ac-triumph.ru/cars-new/solaris/hs/2022-sedan-4/</t>
+          <t>https://park-auto-sm.ru/avto-new/solaris/solaris_hc/</t>
         </is>
       </c>
       <c r="F275" t="n">
-        <v>1260000</v>
+        <v>1530000</v>
       </c>
       <c r="G275" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/solaris/solaris_hs/</t>
+          <t>https://park-auto-sm.ru/avto-new/solaris/solaris_hc/</t>
         </is>
       </c>
       <c r="H275" t="n">
-        <v>1250000</v>
+        <v>1749000</v>
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>https://ac-triumph.ru/cars-new/solaris/hs/2022-sedan-4/</t>
+          <t>https://ac-triumph.ru/cars-new/solaris/hc/2022-allroad-5/</t>
         </is>
       </c>
       <c r="J275" t="n">
-        <v>1255000</v>
+        <v>1754000</v>
       </c>
       <c r="K275" t="inlineStr">
         <is>
-          <t>https://ace-auto-63.ru/car/solaris-hs/</t>
+          <t>https://ace-auto-63.ru/car/solaris-hc/</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>596</t>
+          <t>595</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
@@ -10605,46 +10589,46 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>KRS</t>
+          <t>HS</t>
         </is>
       </c>
       <c r="D276" t="n">
-        <v>1222800</v>
+        <v>1250000</v>
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/solaris/krs/</t>
+          <t>https://ac-triumph.ru/cars-new/solaris/hs/2022-sedan-4/</t>
         </is>
       </c>
       <c r="F276" t="n">
-        <v>1222800</v>
+        <v>1260000</v>
       </c>
       <c r="G276" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/solaris/krs/</t>
+          <t>https://park-auto-sm.ru/avto-new/solaris/solaris_hs/</t>
         </is>
       </c>
       <c r="H276" t="n">
-        <v>1438000</v>
+        <v>1250000</v>
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>https://ac-triumph.ru/cars-new/solaris/krs/2024-sedan-4/</t>
+          <t>https://ac-triumph.ru/cars-new/solaris/hs/2022-sedan-4/</t>
         </is>
       </c>
       <c r="J276" t="n">
-        <v>1443000</v>
+        <v>1255000</v>
       </c>
       <c r="K276" t="inlineStr">
         <is>
-          <t>https://ace-auto-63.ru/car/solaris-krs/</t>
+          <t>https://ace-auto-63.ru/car/solaris-hs/</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>597</t>
+          <t>596</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
@@ -10654,79 +10638,95 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>KRX</t>
+          <t>KRS</t>
         </is>
       </c>
       <c r="D277" t="n">
-        <v>1256400</v>
+        <v>1222800</v>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/solaris/krx/</t>
+          <t>https://park-auto-sm.ru/avto-new/solaris/krs/</t>
         </is>
       </c>
       <c r="F277" t="n">
-        <v>1256400</v>
+        <v>1222800</v>
       </c>
       <c r="G277" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/solaris/krx/</t>
+          <t>https://park-auto-sm.ru/avto-new/solaris/krs/</t>
         </is>
       </c>
       <c r="H277" t="n">
-        <v>1464000</v>
+        <v>1438000</v>
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>https://ac-triumph.ru/cars-new/solaris/krx/2024-hatchback-5/</t>
+          <t>https://ac-triumph.ru/cars-new/solaris/krs/2024-sedan-4/</t>
         </is>
       </c>
       <c r="J277" t="n">
-        <v>1396000</v>
+        <v>1443000</v>
       </c>
       <c r="K277" t="inlineStr">
         <is>
-          <t>https://ace-auto-63.ru/car/solaris-krx/</t>
+          <t>https://ace-auto-63.ru/car/solaris-krs/</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>607</t>
+          <t>597</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Suzuki</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>SX4</t>
+          <t>KRX</t>
         </is>
       </c>
       <c r="D278" t="n">
-        <v>1109000</v>
+        <v>1256400</v>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>https://ac-triumph.ru/cars-new/suzuki/sx4/ii-res-hatchback-5/</t>
+          <t>https://park-auto-sm.ru/avto-new/solaris/krx/</t>
+        </is>
+      </c>
+      <c r="F278" t="n">
+        <v>1256400</v>
+      </c>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>https://park-auto-sm.ru/avto-new/solaris/krx/</t>
         </is>
       </c>
       <c r="H278" t="n">
-        <v>1109000</v>
+        <v>1464000</v>
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>https://ac-triumph.ru/cars-new/suzuki/sx4/ii-res-hatchback-5/</t>
+          <t>https://ac-triumph.ru/cars-new/solaris/krx/2024-hatchback-5/</t>
+        </is>
+      </c>
+      <c r="J278" t="n">
+        <v>1396000</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>https://ace-auto-63.ru/car/solaris-krx/</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>608</t>
+          <t>607</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
@@ -10736,63 +10736,63 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>Vitara</t>
+          <t>SX4</t>
         </is>
       </c>
       <c r="D279" t="n">
-        <v>1049000</v>
+        <v>1109000</v>
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>https://ac-triumph.ru/cars-new/suzuki/vitara/ii-res-allroad-5/</t>
+          <t>https://ac-triumph.ru/cars-new/suzuki/sx4/ii-res-hatchback-5/</t>
         </is>
       </c>
       <c r="H279" t="n">
-        <v>1049000</v>
+        <v>1109000</v>
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>https://ac-triumph.ru/cars-new/suzuki/vitara/ii-res-allroad-5/</t>
+          <t>https://ac-triumph.ru/cars-new/suzuki/sx4/ii-res-hatchback-5/</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>608</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>TANK</t>
+          <t>Suzuki</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>Vitara</t>
         </is>
       </c>
       <c r="D280" t="n">
-        <v>2549400</v>
+        <v>1049000</v>
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/tank/tank_300/</t>
-        </is>
-      </c>
-      <c r="F280" t="n">
-        <v>2549400</v>
-      </c>
-      <c r="G280" t="inlineStr">
-        <is>
-          <t>https://park-auto-sm.ru/avto-new/tank/tank_300/</t>
+          <t>https://ac-triumph.ru/cars-new/suzuki/vitara/ii-res-allroad-5/</t>
+        </is>
+      </c>
+      <c r="H280" t="n">
+        <v>1049000</v>
+      </c>
+      <c r="I280" t="inlineStr">
+        <is>
+          <t>https://ac-triumph.ru/cars-new/suzuki/vitara/ii-res-allroad-5/</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>770</t>
+          <t>614</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
@@ -10802,71 +10802,63 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>700</t>
+          <t>300</t>
         </is>
       </c>
       <c r="D281" t="n">
-        <v>5339400</v>
+        <v>2549400</v>
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/tank/tank_700/</t>
+          <t>https://park-auto-sm.ru/avto-new/tank/tank_300/</t>
         </is>
       </c>
       <c r="F281" t="n">
-        <v>5339400</v>
+        <v>2549400</v>
       </c>
       <c r="G281" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/tank/tank_700/</t>
+          <t>https://park-auto-sm.ru/avto-new/tank/tank_300/</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>633</t>
+          <t>770</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>UAZ</t>
+          <t>TANK</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>Hunter</t>
+          <t>700</t>
         </is>
       </c>
       <c r="D282" t="n">
-        <v>609200</v>
+        <v>5339400</v>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>https://ace-auto-63.ru/car/%d1%83%d0%b0%d0%b7-hunter/</t>
+          <t>https://park-auto-sm.ru/avto-new/tank/tank_700/</t>
         </is>
       </c>
       <c r="F282" t="n">
-        <v>837000</v>
+        <v>5339400</v>
       </c>
       <c r="G282" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/uaz/hunter/</t>
-        </is>
-      </c>
-      <c r="J282" t="n">
-        <v>609200</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>https://ace-auto-63.ru/car/%d1%83%d0%b0%d0%b7-hunter/</t>
+          <t>https://park-auto-sm.ru/avto-new/tank/tank_700/</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>634</t>
+          <t>633</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
@@ -10876,46 +10868,38 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>Patriot</t>
+          <t>Hunter</t>
         </is>
       </c>
       <c r="D283" t="n">
-        <v>685400</v>
+        <v>609200</v>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>https://ace-auto-63.ru/car/%d1%83%d0%b0%d0%b7-patriot/</t>
+          <t>https://ace-auto-63.ru/car/%d1%83%d0%b0%d0%b7-hunter/</t>
         </is>
       </c>
       <c r="F283" t="n">
-        <v>927000</v>
+        <v>837000</v>
       </c>
       <c r="G283" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/uaz/patriot_new/</t>
-        </is>
-      </c>
-      <c r="H283" t="n">
-        <v>1009000</v>
-      </c>
-      <c r="I283" t="inlineStr">
-        <is>
-          <t>https://ac-triumph.ru/cars-new/uaz/3163/i-res-3-allroad-5/</t>
+          <t>https://park-auto-sm.ru/avto-new/uaz/hunter/</t>
         </is>
       </c>
       <c r="J283" t="n">
-        <v>685400</v>
+        <v>609200</v>
       </c>
       <c r="K283" t="inlineStr">
         <is>
-          <t>https://ace-auto-63.ru/car/%d1%83%d0%b0%d0%b7-patriot/</t>
+          <t>https://ace-auto-63.ru/car/%d1%83%d0%b0%d0%b7-hunter/</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>734</t>
+          <t>634</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
@@ -10925,30 +10909,46 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>Patriot АКПП</t>
+          <t>Patriot</t>
         </is>
       </c>
       <c r="D284" t="n">
-        <v>1161000</v>
+        <v>685400</v>
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/uaz/patrion_at/</t>
+          <t>https://ace-auto-63.ru/car/%d1%83%d0%b0%d0%b7-patriot/</t>
         </is>
       </c>
       <c r="F284" t="n">
-        <v>1161000</v>
+        <v>927000</v>
       </c>
       <c r="G284" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/uaz/patrion_at/</t>
+          <t>https://park-auto-sm.ru/avto-new/uaz/patriot_new/</t>
+        </is>
+      </c>
+      <c r="H284" t="n">
+        <v>1009000</v>
+      </c>
+      <c r="I284" t="inlineStr">
+        <is>
+          <t>https://ac-triumph.ru/cars-new/uaz/3163/i-res-3-allroad-5/</t>
+        </is>
+      </c>
+      <c r="J284" t="n">
+        <v>685400</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>https://ace-auto-63.ru/car/%d1%83%d0%b0%d0%b7-patriot/</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>637</t>
+          <t>734</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
@@ -10958,46 +10958,30 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>Pickup</t>
+          <t>Patriot АКПП</t>
         </is>
       </c>
       <c r="D285" t="n">
-        <v>700400</v>
+        <v>1161000</v>
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>https://ace-auto-63.ru/car/%d1%83%d0%b0%d0%b7-pickup/</t>
+          <t>https://park-auto-sm.ru/avto-new/uaz/patrion_at/</t>
         </is>
       </c>
       <c r="F285" t="n">
-        <v>942000</v>
+        <v>1161000</v>
       </c>
       <c r="G285" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/uaz/pickup_new/</t>
-        </is>
-      </c>
-      <c r="H285" t="n">
-        <v>783500</v>
-      </c>
-      <c r="I285" t="inlineStr">
-        <is>
-          <t>https://ac-triumph.ru/cars-new/uaz/pickup/i-res-2-pickup-two-4/</t>
-        </is>
-      </c>
-      <c r="J285" t="n">
-        <v>700400</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>https://ace-auto-63.ru/car/%d1%83%d0%b0%d0%b7-pickup/</t>
+          <t>https://park-auto-sm.ru/avto-new/uaz/patrion_at/</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>828</t>
+          <t>637</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
@@ -11007,63 +10991,79 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>Pickup АКПП</t>
+          <t>Pickup</t>
         </is>
       </c>
       <c r="D286" t="n">
-        <v>1215000</v>
+        <v>700400</v>
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/uaz/UAZ_Pickup_akpp/</t>
+          <t>https://ace-auto-63.ru/car/%d1%83%d0%b0%d0%b7-pickup/</t>
         </is>
       </c>
       <c r="F286" t="n">
-        <v>1215000</v>
+        <v>942000</v>
       </c>
       <c r="G286" t="inlineStr">
         <is>
-          <t>https://park-auto-sm.ru/avto-new/uaz/UAZ_Pickup_akpp/</t>
+          <t>https://park-auto-sm.ru/avto-new/uaz/pickup_new/</t>
+        </is>
+      </c>
+      <c r="H286" t="n">
+        <v>783500</v>
+      </c>
+      <c r="I286" t="inlineStr">
+        <is>
+          <t>https://ac-triumph.ru/cars-new/uaz/pickup/i-res-2-pickup-two-4/</t>
+        </is>
+      </c>
+      <c r="J286" t="n">
+        <v>700400</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>https://ace-auto-63.ru/car/%d1%83%d0%b0%d0%b7-pickup/</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>639</t>
+          <t>828</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>UAZ</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>Arteon</t>
+          <t>Pickup АКПП</t>
         </is>
       </c>
       <c r="D287" t="n">
-        <v>2239000</v>
+        <v>1215000</v>
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>https://ac-triumph.ru/cars-new/volkswagen/arteon/i-liftback-5/</t>
-        </is>
-      </c>
-      <c r="H287" t="n">
-        <v>2239000</v>
-      </c>
-      <c r="I287" t="inlineStr">
-        <is>
-          <t>https://ac-triumph.ru/cars-new/volkswagen/arteon/i-liftback-5/</t>
+          <t>https://park-auto-sm.ru/avto-new/uaz/UAZ_Pickup_akpp/</t>
+        </is>
+      </c>
+      <c r="F287" t="n">
+        <v>1215000</v>
+      </c>
+      <c r="G287" t="inlineStr">
+        <is>
+          <t>https://park-auto-sm.ru/avto-new/uaz/UAZ_Pickup_akpp/</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>640</t>
+          <t>639</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
@@ -11073,30 +11073,30 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>Bora</t>
+          <t>Arteon</t>
         </is>
       </c>
       <c r="D288" t="n">
-        <v>1750000</v>
+        <v>2239000</v>
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>https://ac-triumph.ru/cars-new/volkswagen/bora/iv-sedan-4/</t>
+          <t>https://ac-triumph.ru/cars-new/volkswagen/arteon/i-liftback-5/</t>
         </is>
       </c>
       <c r="H288" t="n">
-        <v>1750000</v>
+        <v>2239000</v>
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>https://ac-triumph.ru/cars-new/volkswagen/bora/iv-sedan-4/</t>
+          <t>https://ac-triumph.ru/cars-new/volkswagen/arteon/i-liftback-5/</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>645</t>
+          <t>640</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
@@ -11106,30 +11106,30 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>Bora</t>
         </is>
       </c>
       <c r="D289" t="n">
-        <v>1186200</v>
+        <v>1750000</v>
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>https://ac-triumph.ru/cars-new/volkswagen/jetta/vii-sedan-4/</t>
+          <t>https://ac-triumph.ru/cars-new/volkswagen/bora/iv-sedan-4/</t>
         </is>
       </c>
       <c r="H289" t="n">
-        <v>1186200</v>
+        <v>1750000</v>
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>https://ac-triumph.ru/cars-new/volkswagen/jetta/vii-sedan-4/</t>
+          <t>https://ac-triumph.ru/cars-new/volkswagen/bora/iv-sedan-4/</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>649</t>
+          <t>645</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
@@ -11139,30 +11139,30 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>Passat</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="D290" t="n">
-        <v>1123700</v>
+        <v>1186200</v>
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>https://ac-triumph.ru/cars-new/volkswagen/passat/b8-res-sedan-4/</t>
+          <t>https://ac-triumph.ru/cars-new/volkswagen/jetta/vii-sedan-4/</t>
         </is>
       </c>
       <c r="H290" t="n">
-        <v>1123700</v>
+        <v>1186200</v>
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>https://ac-triumph.ru/cars-new/volkswagen/passat/b8-res-sedan-4/</t>
+          <t>https://ac-triumph.ru/cars-new/volkswagen/jetta/vii-sedan-4/</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>652</t>
+          <t>649</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
@@ -11172,30 +11172,30 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>Polo</t>
+          <t>Passat</t>
         </is>
       </c>
       <c r="D291" t="n">
-        <v>734000</v>
+        <v>1123700</v>
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>https://ac-triumph.ru/cars-new/volkswagen/polo/vi-liftback-5/</t>
+          <t>https://ac-triumph.ru/cars-new/volkswagen/passat/b8-res-sedan-4/</t>
         </is>
       </c>
       <c r="H291" t="n">
-        <v>734000</v>
+        <v>1123700</v>
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>https://ac-triumph.ru/cars-new/volkswagen/polo/vi-liftback-5/</t>
+          <t>https://ac-triumph.ru/cars-new/volkswagen/passat/b8-res-sedan-4/</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>653</t>
+          <t>652</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
@@ -11205,30 +11205,30 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>Taos</t>
+          <t>Polo</t>
         </is>
       </c>
       <c r="D292" t="n">
-        <v>1464000</v>
+        <v>734000</v>
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>https://ac-triumph.ru/cars-new/volkswagen/taos/2020-allroad-5/</t>
+          <t>https://ac-triumph.ru/cars-new/volkswagen/polo/vi-liftback-5/</t>
         </is>
       </c>
       <c r="H292" t="n">
-        <v>1464000</v>
+        <v>734000</v>
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>https://ac-triumph.ru/cars-new/volkswagen/taos/2020-allroad-5/</t>
+          <t>https://ac-triumph.ru/cars-new/volkswagen/polo/vi-liftback-5/</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>655</t>
+          <t>653</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
@@ -11238,30 +11238,30 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>Teramont</t>
+          <t>Taos</t>
         </is>
       </c>
       <c r="D293" t="n">
-        <v>2679400</v>
+        <v>1464000</v>
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>https://ac-triumph.ru/cars-new/volkswagen/teramont/i-allroad-5/</t>
+          <t>https://ac-triumph.ru/cars-new/volkswagen/taos/2020-allroad-5/</t>
         </is>
       </c>
       <c r="H293" t="n">
-        <v>2679400</v>
+        <v>1464000</v>
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>https://ac-triumph.ru/cars-new/volkswagen/teramont/i-allroad-5/</t>
+          <t>https://ac-triumph.ru/cars-new/volkswagen/taos/2020-allroad-5/</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>657</t>
+          <t>655</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
@@ -11271,54 +11271,87 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>Tiguan</t>
+          <t>Teramont</t>
         </is>
       </c>
       <c r="D294" t="n">
-        <v>1529300</v>
+        <v>2679400</v>
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>https://ac-triumph.ru/cars-new/volkswagen/tiguan/ii-res-allroad-5/</t>
+          <t>https://ac-triumph.ru/cars-new/volkswagen/teramont/i-allroad-5/</t>
         </is>
       </c>
       <c r="H294" t="n">
-        <v>1529300</v>
+        <v>2679400</v>
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>https://ac-triumph.ru/cars-new/volkswagen/tiguan/ii-res-allroad-5/</t>
+          <t>https://ac-triumph.ru/cars-new/volkswagen/teramont/i-allroad-5/</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
+          <t>657</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>Volkswagen</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>Tiguan</t>
+        </is>
+      </c>
+      <c r="D295" t="n">
+        <v>1529300</v>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>https://ac-triumph.ru/cars-new/volkswagen/tiguan/ii-res-allroad-5/</t>
+        </is>
+      </c>
+      <c r="H295" t="n">
+        <v>1529300</v>
+      </c>
+      <c r="I295" t="inlineStr">
+        <is>
+          <t>https://ac-triumph.ru/cars-new/volkswagen/tiguan/ii-res-allroad-5/</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
           <t>659</t>
         </is>
       </c>
-      <c r="B295" t="inlineStr">
+      <c r="B296" t="inlineStr">
         <is>
           <t>Volkswagen</t>
         </is>
       </c>
-      <c r="C295" t="inlineStr">
+      <c r="C296" t="inlineStr">
         <is>
           <t>Touareg</t>
         </is>
       </c>
-      <c r="D295" t="n">
+      <c r="D296" t="n">
         <v>5551000</v>
       </c>
-      <c r="E295" t="inlineStr">
+      <c r="E296" t="inlineStr">
         <is>
           <t>https://ac-triumph.ru/cars-new/volkswagen/touareg/iii-allroad-5/</t>
         </is>
       </c>
-      <c r="H295" t="n">
+      <c r="H296" t="n">
         <v>5551000</v>
       </c>
-      <c r="I295" t="inlineStr">
+      <c r="I296" t="inlineStr">
         <is>
           <t>https://ac-triumph.ru/cars-new/volkswagen/touareg/iii-allroad-5/</t>
         </is>
